--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/3_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/3_225-80R17.xlsx
@@ -728,37 +728,37 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2346625748501799</v>
+        <v>0.2186189395927225</v>
       </c>
       <c r="F2">
-        <v>0.1264210761784495</v>
+        <v>0.120116085460771</v>
       </c>
       <c r="G2">
-        <v>0.09607160702571267</v>
+        <v>0.09249720204156939</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08595528998674426</v>
+        <v>0.08329106471096781</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01629068814176059</v>
+        <v>0.01989428807811529</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1710011757931632</v>
+        <v>0.1606852488909045</v>
       </c>
       <c r="N2">
-        <v>0.08548883109766733</v>
+        <v>0.08286657380430876</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0003779875403801499</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -767,25 +767,25 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01265426682051769</v>
+        <v>0.01658504085441384</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0005814751249050582</v>
       </c>
       <c r="U2">
-        <v>0.009217602139500335</v>
+        <v>0.01345757787645441</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.04690334904115898</v>
+        <v>0.04775268350101491</v>
       </c>
       <c r="X2">
-        <v>0.01942902327226359</v>
+        <v>0.02275026264767151</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -794,34 +794,34 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.002653277103833989</v>
+        <v>0.007483854679735284</v>
       </c>
       <c r="AB2">
-        <v>0.05534985447304961</v>
+        <v>0.05543924459534641</v>
       </c>
       <c r="AC2">
-        <v>0.006913168308681608</v>
+        <v>0.01136047729784652</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.0009832627510761543</v>
       </c>
       <c r="AE2">
-        <v>0.02182828801391912</v>
+        <v>0.02493366206260359</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.003533989186074265</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.003385986764646371</v>
       </c>
       <c r="AJ2">
-        <v>0.009159927753397405</v>
+        <v>0.01340509253847257</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1316322361650767</v>
+        <v>0.1236835037893844</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02298515785813123</v>
+        <v>0.02681841526212456</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005114566038741051</v>
       </c>
       <c r="I3">
-        <v>0.1338739943983665</v>
+        <v>0.1256821595572906</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -880,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3834562300215725</v>
+        <v>0.3481990069977045</v>
       </c>
       <c r="N3">
-        <v>0.0330192752515476</v>
+        <v>0.035764405202694</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00429094828722678</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0281821466780148</v>
+        <v>0.03145182823519132</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -901,46 +901,46 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0459774532334249</v>
+        <v>0.04731736251113083</v>
       </c>
       <c r="U3">
-        <v>0.005408894799017891</v>
+        <v>0.01114817079968709</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.001149644768235752</v>
       </c>
       <c r="W3">
-        <v>0.08828595352606651</v>
+        <v>0.0850378119715775</v>
       </c>
       <c r="X3">
-        <v>0.009238362836941426</v>
+        <v>0.01456236072808816</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.001149644768235752</v>
       </c>
       <c r="AA3">
-        <v>0.007722212056817081</v>
+        <v>0.01321062553349315</v>
       </c>
       <c r="AB3">
-        <v>0.01598353055524381</v>
+        <v>0.02057606379628018</v>
       </c>
       <c r="AC3">
-        <v>0.03893674893146477</v>
+        <v>0.04104017166411263</v>
       </c>
       <c r="AD3">
-        <v>0.04497364732235052</v>
+        <v>0.04642241209041445</v>
       </c>
       <c r="AE3">
-        <v>0.01032415636596381</v>
+        <v>0.0155304078026164</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.001850490195770569</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -984,46 +984,46 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2045343962474359</v>
+        <v>0.1818975903997836</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.006300044857875491</v>
       </c>
       <c r="G4">
-        <v>0.2188652019666291</v>
+        <v>0.1941600700420932</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06803758377023465</v>
+        <v>0.06510099033143289</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.004237964546944108</v>
       </c>
       <c r="K4">
-        <v>0.02685127600544411</v>
+        <v>0.02985898995798298</v>
       </c>
       <c r="L4">
-        <v>0.0009440748374263544</v>
+        <v>0.007690904426925751</v>
       </c>
       <c r="M4">
-        <v>0.1245794947825807</v>
+        <v>0.1134823616452304</v>
       </c>
       <c r="N4">
-        <v>0.1295214016441979</v>
+        <v>0.1177110165772841</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.01390819774474565</v>
+        <v>0.0187839508575596</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01548601444436697</v>
+        <v>0.02013404557920459</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1032,52 +1032,52 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.03447105495492898</v>
+        <v>0.03637902700808532</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.02612414632483635</v>
+        <v>0.0292368049196477</v>
       </c>
       <c r="X4">
-        <v>0.03900866486316441</v>
+        <v>0.0402617360626054</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.0001774124784726753</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.003258558421570599</v>
       </c>
       <c r="AB4">
-        <v>0.03696011048626974</v>
+        <v>0.03850884394788002</v>
       </c>
       <c r="AC4">
-        <v>0.02794018513985809</v>
+        <v>0.03079073980894867</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.002025245427321486</v>
       </c>
       <c r="AE4">
-        <v>0.02789908783408759</v>
+        <v>0.03075557396515459</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.004432508987950968</v>
       </c>
       <c r="AG4">
-        <v>0.0004290571881312288</v>
+        <v>0.007250217869333705</v>
       </c>
       <c r="AH4">
-        <v>0.00324314567299956</v>
+        <v>0.009658156643574424</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001196906092662927</v>
+        <v>0.007907245237137544</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1130,100 +1130,100 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02571505670461532</v>
+        <v>0.03070646743272046</v>
       </c>
       <c r="L5">
-        <v>0.06505430549085517</v>
+        <v>0.06238350719883395</v>
       </c>
       <c r="M5">
-        <v>0.1924030983206693</v>
+        <v>0.1649282404894097</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3.185704072546546E-05</v>
       </c>
       <c r="O5">
-        <v>0.02628326760606165</v>
+        <v>0.03116400640146025</v>
       </c>
       <c r="P5">
-        <v>0.06312069281794967</v>
+        <v>0.06082650935516102</v>
       </c>
       <c r="Q5">
-        <v>0.01760479787287122</v>
+        <v>0.02417586505841957</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0001465301131271513</v>
       </c>
       <c r="S5">
-        <v>0.2316971734131721</v>
+        <v>0.1965689051610046</v>
       </c>
       <c r="T5">
-        <v>0.2266191873844361</v>
+        <v>0.1924799718354576</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.001027489305108641</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.001490832295081531</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.004398035056523772</v>
       </c>
       <c r="X5">
-        <v>0.01535944890139524</v>
+        <v>0.02236784861548421</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.007992221976240121</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.002644013765741288</v>
       </c>
       <c r="AA5">
-        <v>0.04214356651829102</v>
+        <v>0.04393515315301869</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.0006100979346392748</v>
       </c>
       <c r="AC5">
-        <v>0.04195320923785507</v>
+        <v>0.04378187226108036</v>
       </c>
       <c r="AD5">
-        <v>0.04009906053629441</v>
+        <v>0.04228886098191814</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.889650320722958E-06</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.001956997693053878</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.004377228693211937</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.00458751753128541</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.008911494641491198</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.008358946097516202</v>
       </c>
       <c r="AK5">
-        <v>0.004598718346873205</v>
+        <v>0.0137030138714294</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.00340512362426599</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.004371177793816167</v>
       </c>
       <c r="AN5">
-        <v>0.007348416848660429</v>
+        <v>0.01591714635929743</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>9.312182668336009E-05</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.0003680567864724976</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -1237,46 +1237,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001389926877148997</v>
+        <v>0.007091313295512075</v>
       </c>
       <c r="E6">
-        <v>0.1123384871848931</v>
+        <v>0.1049949110475123</v>
       </c>
       <c r="F6">
-        <v>0.1336229365549446</v>
+        <v>0.123776805681551</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.08051489424424946</v>
+        <v>0.07691303027644025</v>
       </c>
       <c r="I6">
-        <v>0.04652812653554796</v>
+        <v>0.04692231362888829</v>
       </c>
       <c r="J6">
-        <v>0.0283703889379666</v>
+        <v>0.03089950240079258</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.003434254990129039</v>
       </c>
       <c r="L6">
-        <v>0.09462656677021229</v>
+        <v>0.08936549930134371</v>
       </c>
       <c r="M6">
-        <v>0.2538770589261408</v>
+        <v>0.2298918484724906</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004779940593982571</v>
+        <v>0.01008274047929926</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.04209398219921857</v>
+        <v>0.04300952122965242</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1285,46 +1285,46 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.03050206814491362</v>
+        <v>0.03278054585944012</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.03523243639725358</v>
+        <v>0.03695473315228413</v>
       </c>
       <c r="W6">
-        <v>0.05412478015362506</v>
+        <v>0.05362577799131486</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.007234559808905127</v>
+        <v>0.0122487537343206</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02225794151225735</v>
+        <v>0.02550573620511606</v>
       </c>
       <c r="AB6">
-        <v>0.002376901216991639</v>
+        <v>0.007962242476489969</v>
       </c>
       <c r="AC6">
-        <v>0.02685011169110217</v>
+        <v>0.02955797429411245</v>
       </c>
       <c r="AD6">
-        <v>0.0232788922506465</v>
+        <v>0.0264066469527509</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.002633698883852073</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.001657753201857966</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.00428439644484937</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1365,22 +1365,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0245084867605008</v>
+        <v>0.01241669343984975</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0846671103661276</v>
+        <v>0.09349773640227689</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1581954893591598</v>
+        <v>0.192598369009404</v>
       </c>
       <c r="I7">
-        <v>0.04151817798610259</v>
+        <v>0.03534214323208273</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1389,40 +1389,40 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1581932947930672</v>
+        <v>0.1925954112005817</v>
       </c>
       <c r="M7">
-        <v>0.1697213876736874</v>
+        <v>0.208132831076674</v>
       </c>
       <c r="N7">
-        <v>0.01529583778877356</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0189218251136694</v>
+        <v>0.004887060515187669</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01677213913750165</v>
+        <v>0.001989740554345314</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.02221572933357384</v>
+        <v>0.009326543561192937</v>
       </c>
       <c r="T7">
-        <v>0.01330988876073728</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.0341148526679904</v>
+        <v>0.02536403365767195</v>
       </c>
       <c r="W7">
-        <v>0.03192787208686036</v>
+        <v>0.02241644849317338</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.04282237017904922</v>
+        <v>0.03709991721176661</v>
       </c>
       <c r="AB7">
-        <v>0.02082502536146719</v>
+        <v>0.007452170084007016</v>
       </c>
       <c r="AC7">
-        <v>0.07258766685109995</v>
+        <v>0.07721721301422914</v>
       </c>
       <c r="AD7">
-        <v>0.07440284578063162</v>
+        <v>0.07966368854755708</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1496,43 +1496,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1547489615348349</v>
+        <v>0.135427404464481</v>
       </c>
       <c r="F8">
-        <v>0.1672638848231711</v>
+        <v>0.1457208302823944</v>
       </c>
       <c r="G8">
-        <v>0.05524347222393163</v>
+        <v>0.0535849233642132</v>
       </c>
       <c r="H8">
-        <v>0.07655937133225987</v>
+        <v>0.07111708246407718</v>
       </c>
       <c r="I8">
-        <v>0.0274798187142874</v>
+        <v>0.03074953706167622</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.01744559290451198</v>
+        <v>0.02249646537809847</v>
       </c>
       <c r="L8">
-        <v>0.127275766612068</v>
+        <v>0.112830918061553</v>
       </c>
       <c r="M8">
-        <v>0.06193319704997013</v>
+        <v>0.05908716933509007</v>
       </c>
       <c r="N8">
-        <v>0.06044659953283547</v>
+        <v>0.05786445458797041</v>
       </c>
       <c r="O8">
-        <v>0.01243955927108475</v>
+        <v>0.01837904214980849</v>
       </c>
       <c r="P8">
-        <v>0.01959126991761249</v>
+        <v>0.02426126781872839</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.003342139087015992</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1541,40 +1541,40 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.01645111087441554</v>
+        <v>0.0216785117424109</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.007962434484098382</v>
       </c>
       <c r="W8">
-        <v>0.05411213137218247</v>
+        <v>0.0526544044258264</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.004368872143182823</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.0003222923244427126</v>
       </c>
       <c r="AA8">
-        <v>0.0220596404017122</v>
+        <v>0.02629148309722613</v>
       </c>
       <c r="AB8">
-        <v>0.08278578509710725</v>
+        <v>0.07623825873687332</v>
       </c>
       <c r="AC8">
-        <v>0.01166340692674224</v>
+        <v>0.01774066296075384</v>
       </c>
       <c r="AD8">
-        <v>0.01093538755508713</v>
+        <v>0.01714187276256542</v>
       </c>
       <c r="AE8">
-        <v>0.004671471062328071</v>
+        <v>0.01198985079149095</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1586,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.006707689290379792</v>
       </c>
       <c r="AJ8">
-        <v>0.01689357279385736</v>
+        <v>0.02204243318564265</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1624,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1878381386931893</v>
+        <v>0.1926999788944368</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1319380174982818</v>
+        <v>0.1346932942801326</v>
       </c>
       <c r="H9">
-        <v>0.03945640511006425</v>
+        <v>0.03872656634190449</v>
       </c>
       <c r="I9">
-        <v>0.08016382925741049</v>
+        <v>0.08096802599353294</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1645,22 +1645,22 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08333899797325146</v>
+        <v>0.08426284908800903</v>
       </c>
       <c r="M9">
-        <v>0.1219274149353025</v>
+        <v>0.1243054480061466</v>
       </c>
       <c r="N9">
-        <v>0.05926054558790942</v>
+        <v>0.05927701428727308</v>
       </c>
       <c r="O9">
-        <v>0.07974882741878013</v>
+        <v>0.08053738505299093</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.0053765503774308</v>
+        <v>0.003362432187625353</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1669,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.003215076687178913</v>
+        <v>0.001119504623740579</v>
       </c>
       <c r="U9">
-        <v>0.002136227851713396</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.04270426569314987</v>
+        <v>0.04209682065418746</v>
       </c>
       <c r="X9">
-        <v>0.0432578004422667</v>
+        <v>0.04267121503703906</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1693,16 +1693,16 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.0605154025241875</v>
+        <v>0.0605791597743098</v>
       </c>
       <c r="AC9">
-        <v>0.03453110359991641</v>
+        <v>0.03361565772091336</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.01154039697964162</v>
+        <v>0.009758559749115612</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.01305099937032578</v>
+        <v>0.01132608830864247</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1752,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1220151380554086</v>
+        <v>0.1350480015792723</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1903237328911057</v>
+        <v>0.2160015459749475</v>
       </c>
       <c r="H10">
-        <v>0.03542332021230792</v>
+        <v>0.03242673427133479</v>
       </c>
       <c r="I10">
-        <v>0.1098503078716529</v>
+        <v>0.1206312781389025</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1773,43 +1773,43 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03276668867145544</v>
+        <v>0.0292783202261821</v>
       </c>
       <c r="M10">
-        <v>0.07123665758028659</v>
+        <v>0.07486965969747553</v>
       </c>
       <c r="N10">
-        <v>0.04128156030121202</v>
+        <v>0.03936942281965473</v>
       </c>
       <c r="O10">
-        <v>0.06060366816262987</v>
+        <v>0.06226834381692711</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.006059030534230144</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.01300903353856437</v>
+        <v>0.005863225598601118</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.00806164420762202</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.0155621674948729</v>
+        <v>0.008888983097745535</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.03128020320691988</v>
+        <v>0.02751666391724689</v>
       </c>
       <c r="X10">
-        <v>0.04367829115623285</v>
+        <v>0.04220982464819623</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.005031446923313494</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.08236021069579937</v>
+        <v>0.08805235000372862</v>
       </c>
       <c r="AC10">
-        <v>0.07957714061852551</v>
+        <v>0.08475409174503107</v>
       </c>
       <c r="AD10">
-        <v>0.008441688508294532</v>
+        <v>0.0004503962237960963</v>
       </c>
       <c r="AE10">
-        <v>0.03490156546157562</v>
+        <v>0.03180839485916188</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.008536503907990246</v>
+        <v>0.0005627633817960949</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1521389997418707</v>
+        <v>0.1427644271767594</v>
       </c>
       <c r="F11">
-        <v>0.006152534992316552</v>
+        <v>0.01074677838662283</v>
       </c>
       <c r="G11">
-        <v>0.1555100700256749</v>
+        <v>0.1458129342663558</v>
       </c>
       <c r="H11">
-        <v>0.01306935562896169</v>
+        <v>0.01700175825149948</v>
       </c>
       <c r="I11">
-        <v>0.1358061233423497</v>
+        <v>0.1279943733642791</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1901,22 +1901,22 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07045334145629521</v>
+        <v>0.06889491766273338</v>
       </c>
       <c r="M11">
-        <v>0.1554081378240451</v>
+        <v>0.145720755518016</v>
       </c>
       <c r="N11">
-        <v>0.02977047705312899</v>
+        <v>0.03210482130847291</v>
       </c>
       <c r="O11">
-        <v>0.0629142894658862</v>
+        <v>0.06207724508200575</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.01501270796080384</v>
+        <v>0.01875915956990776</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.001022803102934828</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.04207056290144646</v>
+        <v>0.0432279649259134</v>
       </c>
       <c r="X11">
-        <v>0.0184111028280445</v>
+        <v>0.02183237667125517</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1946,22 +1946,22 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.006506414673760802</v>
+        <v>0.01106679684572463</v>
       </c>
       <c r="AB11">
-        <v>0.04305167894477266</v>
+        <v>0.04411520220131706</v>
       </c>
       <c r="AC11">
-        <v>0.04058065824962285</v>
+        <v>0.04188062283229756</v>
       </c>
       <c r="AD11">
-        <v>0.007821276440927951</v>
+        <v>0.01225584515430066</v>
       </c>
       <c r="AE11">
-        <v>0.03646674992612097</v>
+        <v>0.03816035667516705</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.001369735918824199</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.008855518543970811</v>
+        <v>0.01319112508561293</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -2149,118 +2149,118 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2346625748501799</v>
+        <v>0.2186189395927225</v>
       </c>
       <c r="F2">
-        <v>0.3610836510286294</v>
+        <v>0.3387350250534935</v>
       </c>
       <c r="G2">
-        <v>0.457155258054342</v>
+        <v>0.4312322270950629</v>
       </c>
       <c r="H2">
-        <v>0.457155258054342</v>
+        <v>0.4312322270950629</v>
       </c>
       <c r="I2">
-        <v>0.5431105480410863</v>
+        <v>0.5145232918060307</v>
       </c>
       <c r="J2">
-        <v>0.5431105480410863</v>
+        <v>0.5145232918060307</v>
       </c>
       <c r="K2">
-        <v>0.5594012361828469</v>
+        <v>0.5344175798841461</v>
       </c>
       <c r="L2">
-        <v>0.5594012361828469</v>
+        <v>0.5344175798841461</v>
       </c>
       <c r="M2">
-        <v>0.73040241197601</v>
+        <v>0.6951028287750506</v>
       </c>
       <c r="N2">
-        <v>0.8158912430736773</v>
+        <v>0.7779694025793593</v>
       </c>
       <c r="O2">
-        <v>0.8158912430736773</v>
+        <v>0.7783473901197394</v>
       </c>
       <c r="P2">
-        <v>0.8158912430736773</v>
+        <v>0.7783473901197394</v>
       </c>
       <c r="Q2">
-        <v>0.8158912430736773</v>
+        <v>0.7783473901197394</v>
       </c>
       <c r="R2">
-        <v>0.8285455098941951</v>
+        <v>0.7949324309741532</v>
       </c>
       <c r="S2">
-        <v>0.8285455098941951</v>
+        <v>0.7949324309741532</v>
       </c>
       <c r="T2">
-        <v>0.8285455098941951</v>
+        <v>0.7955139060990583</v>
       </c>
       <c r="U2">
-        <v>0.8377631120336954</v>
+        <v>0.8089714839755127</v>
       </c>
       <c r="V2">
-        <v>0.8377631120336954</v>
+        <v>0.8089714839755127</v>
       </c>
       <c r="W2">
-        <v>0.8846664610748544</v>
+        <v>0.8567241674765276</v>
       </c>
       <c r="X2">
-        <v>0.904095484347118</v>
+        <v>0.8794744301241991</v>
       </c>
       <c r="Y2">
-        <v>0.904095484347118</v>
+        <v>0.8794744301241991</v>
       </c>
       <c r="Z2">
-        <v>0.904095484347118</v>
+        <v>0.8794744301241991</v>
       </c>
       <c r="AA2">
-        <v>0.906748761450952</v>
+        <v>0.8869582848039345</v>
       </c>
       <c r="AB2">
-        <v>0.9620986159240016</v>
+        <v>0.9423975293992809</v>
       </c>
       <c r="AC2">
-        <v>0.9690117842326832</v>
+        <v>0.9537580066971274</v>
       </c>
       <c r="AD2">
-        <v>0.9690117842326832</v>
+        <v>0.9547412694482036</v>
       </c>
       <c r="AE2">
-        <v>0.9908400722466023</v>
+        <v>0.9796749315108072</v>
       </c>
       <c r="AF2">
-        <v>0.9908400722466023</v>
+        <v>0.9796749315108072</v>
       </c>
       <c r="AG2">
-        <v>0.9908400722466023</v>
+        <v>0.9832089206968815</v>
       </c>
       <c r="AH2">
-        <v>0.9908400722466023</v>
+        <v>0.9832089206968815</v>
       </c>
       <c r="AI2">
-        <v>0.9908400722466023</v>
+        <v>0.9865949074615279</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2277,118 +2277,118 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1316322361650767</v>
+        <v>0.1236835037893844</v>
       </c>
       <c r="F3">
-        <v>0.1316322361650767</v>
+        <v>0.1236835037893844</v>
       </c>
       <c r="G3">
-        <v>0.154617394023208</v>
+        <v>0.150501919051509</v>
       </c>
       <c r="H3">
-        <v>0.154617394023208</v>
+        <v>0.1556164850902501</v>
       </c>
       <c r="I3">
-        <v>0.2884913884215745</v>
+        <v>0.2812986446475407</v>
       </c>
       <c r="J3">
-        <v>0.2884913884215745</v>
+        <v>0.2812986446475407</v>
       </c>
       <c r="K3">
-        <v>0.2884913884215745</v>
+        <v>0.2812986446475407</v>
       </c>
       <c r="L3">
-        <v>0.2884913884215745</v>
+        <v>0.2812986446475407</v>
       </c>
       <c r="M3">
-        <v>0.671947618443147</v>
+        <v>0.6294976516452451</v>
       </c>
       <c r="N3">
-        <v>0.7049668936946946</v>
+        <v>0.665262056847939</v>
       </c>
       <c r="O3">
-        <v>0.7049668936946946</v>
+        <v>0.6695530051351658</v>
       </c>
       <c r="P3">
-        <v>0.7049668936946946</v>
+        <v>0.6695530051351658</v>
       </c>
       <c r="Q3">
-        <v>0.7331490403727093</v>
+        <v>0.7010048333703571</v>
       </c>
       <c r="R3">
-        <v>0.7331490403727093</v>
+        <v>0.7010048333703571</v>
       </c>
       <c r="S3">
-        <v>0.7331490403727093</v>
+        <v>0.7010048333703571</v>
       </c>
       <c r="T3">
-        <v>0.7791264936061343</v>
+        <v>0.748322195881488</v>
       </c>
       <c r="U3">
-        <v>0.7845353884051521</v>
+        <v>0.7594703666811751</v>
       </c>
       <c r="V3">
-        <v>0.7845353884051521</v>
+        <v>0.7606200114494108</v>
       </c>
       <c r="W3">
-        <v>0.8728213419312186</v>
+        <v>0.8456578234209884</v>
       </c>
       <c r="X3">
-        <v>0.8820597047681601</v>
+        <v>0.8602201841490765</v>
       </c>
       <c r="Y3">
-        <v>0.8820597047681601</v>
+        <v>0.8602201841490765</v>
       </c>
       <c r="Z3">
-        <v>0.8820597047681601</v>
+        <v>0.8613698289173123</v>
       </c>
       <c r="AA3">
-        <v>0.8897819168249772</v>
+        <v>0.8745804544508055</v>
       </c>
       <c r="AB3">
-        <v>0.905765447380221</v>
+        <v>0.8951565182470856</v>
       </c>
       <c r="AC3">
-        <v>0.9447021963116858</v>
+        <v>0.9361966899111983</v>
       </c>
       <c r="AD3">
-        <v>0.9896758436340364</v>
+        <v>0.9826191020016127</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9981495098042291</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9981495098042291</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -2405,118 +2405,118 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2045343962474359</v>
+        <v>0.1818975903997836</v>
       </c>
       <c r="F4">
-        <v>0.2045343962474359</v>
+        <v>0.1881976352576591</v>
       </c>
       <c r="G4">
-        <v>0.423399598214065</v>
+        <v>0.3823577052997523</v>
       </c>
       <c r="H4">
-        <v>0.423399598214065</v>
+        <v>0.3823577052997523</v>
       </c>
       <c r="I4">
-        <v>0.4914371819842996</v>
+        <v>0.4474586956311852</v>
       </c>
       <c r="J4">
-        <v>0.4914371819842996</v>
+        <v>0.4516966601781293</v>
       </c>
       <c r="K4">
-        <v>0.5182884579897438</v>
+        <v>0.4815556501361123</v>
       </c>
       <c r="L4">
-        <v>0.5192325328271701</v>
+        <v>0.4892465545630381</v>
       </c>
       <c r="M4">
-        <v>0.6438120276097509</v>
+        <v>0.6027289162082684</v>
       </c>
       <c r="N4">
-        <v>0.7733334292539488</v>
+        <v>0.7204399327855525</v>
       </c>
       <c r="O4">
-        <v>0.7733334292539488</v>
+        <v>0.7204399327855525</v>
       </c>
       <c r="P4">
-        <v>0.7872416269986944</v>
+        <v>0.7392238836431121</v>
       </c>
       <c r="Q4">
-        <v>0.7872416269986944</v>
+        <v>0.7392238836431121</v>
       </c>
       <c r="R4">
-        <v>0.8027276414430613</v>
+        <v>0.7593579292223167</v>
       </c>
       <c r="S4">
-        <v>0.8027276414430613</v>
+        <v>0.7593579292223167</v>
       </c>
       <c r="T4">
-        <v>0.8027276414430613</v>
+        <v>0.7593579292223167</v>
       </c>
       <c r="U4">
-        <v>0.8371986963979903</v>
+        <v>0.795736956230402</v>
       </c>
       <c r="V4">
-        <v>0.8371986963979903</v>
+        <v>0.795736956230402</v>
       </c>
       <c r="W4">
-        <v>0.8633228427228267</v>
+        <v>0.8249737611500497</v>
       </c>
       <c r="X4">
-        <v>0.9023315075859911</v>
+        <v>0.8652354972126551</v>
       </c>
       <c r="Y4">
-        <v>0.9023315075859911</v>
+        <v>0.8652354972126551</v>
       </c>
       <c r="Z4">
-        <v>0.9023315075859911</v>
+        <v>0.8654129096911278</v>
       </c>
       <c r="AA4">
-        <v>0.9023315075859911</v>
+        <v>0.8686714681126985</v>
       </c>
       <c r="AB4">
-        <v>0.9392916180722609</v>
+        <v>0.9071803120605785</v>
       </c>
       <c r="AC4">
-        <v>0.967231803212119</v>
+        <v>0.9379710518695271</v>
       </c>
       <c r="AD4">
-        <v>0.967231803212119</v>
+        <v>0.9399962972968486</v>
       </c>
       <c r="AE4">
-        <v>0.9951308910462066</v>
+        <v>0.9707518712620032</v>
       </c>
       <c r="AF4">
-        <v>0.9951308910462066</v>
+        <v>0.9751843802499542</v>
       </c>
       <c r="AG4">
-        <v>0.9955599482343378</v>
+        <v>0.9824345981192879</v>
       </c>
       <c r="AH4">
-        <v>0.9988030939073373</v>
+        <v>0.9920927547628623</v>
       </c>
       <c r="AI4">
-        <v>0.9988030939073373</v>
+        <v>0.9920927547628623</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2551,97 +2551,97 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02571505670461532</v>
+        <v>0.03070646743272046</v>
       </c>
       <c r="L5">
-        <v>0.09076936219547049</v>
+        <v>0.09308997463155441</v>
       </c>
       <c r="M5">
-        <v>0.2831724605161399</v>
+        <v>0.2580182151209641</v>
       </c>
       <c r="N5">
-        <v>0.2831724605161399</v>
+        <v>0.2580500721616896</v>
       </c>
       <c r="O5">
-        <v>0.3094557281222015</v>
+        <v>0.2892140785631498</v>
       </c>
       <c r="P5">
-        <v>0.3725764209401512</v>
+        <v>0.3500405879183109</v>
       </c>
       <c r="Q5">
-        <v>0.3901812188130224</v>
+        <v>0.3742164529767305</v>
       </c>
       <c r="R5">
-        <v>0.3901812188130224</v>
+        <v>0.3743629830898576</v>
       </c>
       <c r="S5">
-        <v>0.6218783922261946</v>
+        <v>0.5709318882508623</v>
       </c>
       <c r="T5">
-        <v>0.8484975796106307</v>
+        <v>0.7634118600863199</v>
       </c>
       <c r="U5">
-        <v>0.8484975796106307</v>
+        <v>0.7644393493914285</v>
       </c>
       <c r="V5">
-        <v>0.8484975796106307</v>
+        <v>0.7659301816865101</v>
       </c>
       <c r="W5">
-        <v>0.8484975796106307</v>
+        <v>0.7703282167430339</v>
       </c>
       <c r="X5">
-        <v>0.8638570285120259</v>
+        <v>0.7926960653585181</v>
       </c>
       <c r="Y5">
-        <v>0.8638570285120259</v>
+        <v>0.8006882873347583</v>
       </c>
       <c r="Z5">
-        <v>0.8638570285120259</v>
+        <v>0.8033323011004996</v>
       </c>
       <c r="AA5">
-        <v>0.9060005950303169</v>
+        <v>0.8472674542535182</v>
       </c>
       <c r="AB5">
-        <v>0.9060005950303169</v>
+        <v>0.8478775521881575</v>
       </c>
       <c r="AC5">
-        <v>0.947953804268172</v>
+        <v>0.8916594244492378</v>
       </c>
       <c r="AD5">
-        <v>0.9880528648044664</v>
+        <v>0.933948285431156</v>
       </c>
       <c r="AE5">
-        <v>0.9880528648044664</v>
+        <v>0.9339501750814768</v>
       </c>
       <c r="AF5">
-        <v>0.9880528648044664</v>
+        <v>0.9359071727745307</v>
       </c>
       <c r="AG5">
-        <v>0.9880528648044664</v>
+        <v>0.9402844014677426</v>
       </c>
       <c r="AH5">
-        <v>0.9880528648044664</v>
+        <v>0.944871918999028</v>
       </c>
       <c r="AI5">
-        <v>0.9880528648044664</v>
+        <v>0.9537834136405192</v>
       </c>
       <c r="AJ5">
-        <v>0.9880528648044664</v>
+        <v>0.9621423597380354</v>
       </c>
       <c r="AK5">
-        <v>0.9926515831513396</v>
+        <v>0.9758453736094648</v>
       </c>
       <c r="AL5">
-        <v>0.9926515831513396</v>
+        <v>0.9792504972337308</v>
       </c>
       <c r="AM5">
-        <v>0.9926515831513396</v>
+        <v>0.9836216750275469</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0.9995388213868444</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0.9996319432135277</v>
       </c>
       <c r="AP5">
         <v>1</v>
@@ -2658,91 +2658,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001389926877148997</v>
+        <v>0.007091313295512075</v>
       </c>
       <c r="E6">
-        <v>0.1137284140620421</v>
+        <v>0.1120862243430244</v>
       </c>
       <c r="F6">
-        <v>0.2473513506169867</v>
+        <v>0.2358630300245754</v>
       </c>
       <c r="G6">
-        <v>0.2473513506169867</v>
+        <v>0.2358630300245754</v>
       </c>
       <c r="H6">
-        <v>0.3278662448612362</v>
+        <v>0.3127760603010157</v>
       </c>
       <c r="I6">
-        <v>0.3743943713967841</v>
+        <v>0.3596983739299039</v>
       </c>
       <c r="J6">
-        <v>0.4027647603347507</v>
+        <v>0.3905978763306965</v>
       </c>
       <c r="K6">
-        <v>0.4027647603347507</v>
+        <v>0.3940321313208256</v>
       </c>
       <c r="L6">
-        <v>0.497391327104963</v>
+        <v>0.4833976306221693</v>
       </c>
       <c r="M6">
-        <v>0.7512683860311038</v>
+        <v>0.7132894790946599</v>
       </c>
       <c r="N6">
-        <v>0.7512683860311038</v>
+        <v>0.7132894790946599</v>
       </c>
       <c r="O6">
-        <v>0.7560483266250864</v>
+        <v>0.7233722195739591</v>
       </c>
       <c r="P6">
-        <v>0.7560483266250864</v>
+        <v>0.7233722195739591</v>
       </c>
       <c r="Q6">
-        <v>0.7981423088243049</v>
+        <v>0.7663817408036115</v>
       </c>
       <c r="R6">
-        <v>0.7981423088243049</v>
+        <v>0.7663817408036115</v>
       </c>
       <c r="S6">
-        <v>0.7981423088243049</v>
+        <v>0.7663817408036115</v>
       </c>
       <c r="T6">
-        <v>0.8286443769692186</v>
+        <v>0.7991622866630517</v>
       </c>
       <c r="U6">
-        <v>0.8286443769692186</v>
+        <v>0.7991622866630517</v>
       </c>
       <c r="V6">
-        <v>0.8638768133664722</v>
+        <v>0.8361170198153358</v>
       </c>
       <c r="W6">
-        <v>0.9180015935200972</v>
+        <v>0.8897427978066507</v>
       </c>
       <c r="X6">
-        <v>0.9180015935200972</v>
+        <v>0.8897427978066507</v>
       </c>
       <c r="Y6">
-        <v>0.9252361533290023</v>
+        <v>0.9019915515409712</v>
       </c>
       <c r="Z6">
-        <v>0.9252361533290023</v>
+        <v>0.9019915515409712</v>
       </c>
       <c r="AA6">
-        <v>0.9474940948412597</v>
+        <v>0.9274972877460873</v>
       </c>
       <c r="AB6">
-        <v>0.9498709960582513</v>
+        <v>0.9354595302225773</v>
       </c>
       <c r="AC6">
-        <v>0.9767211077493535</v>
+        <v>0.9650175045166898</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9914241514694406</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9940578503532927</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9957156035551508</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -2786,121 +2786,121 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0245084867605008</v>
+        <v>0.01241669343984975</v>
       </c>
       <c r="E7">
-        <v>0.0245084867605008</v>
+        <v>0.01241669343984975</v>
       </c>
       <c r="F7">
-        <v>0.1091755971266284</v>
+        <v>0.1059144298421267</v>
       </c>
       <c r="G7">
-        <v>0.1091755971266284</v>
+        <v>0.1059144298421267</v>
       </c>
       <c r="H7">
-        <v>0.2673710864857882</v>
+        <v>0.2985127988515307</v>
       </c>
       <c r="I7">
-        <v>0.3088892644718907</v>
+        <v>0.3338549420836134</v>
       </c>
       <c r="J7">
-        <v>0.3088892644718907</v>
+        <v>0.3338549420836134</v>
       </c>
       <c r="K7">
-        <v>0.3088892644718907</v>
+        <v>0.3338549420836134</v>
       </c>
       <c r="L7">
-        <v>0.4670825592649579</v>
+        <v>0.5264503532841951</v>
       </c>
       <c r="M7">
-        <v>0.6368039469386453</v>
+        <v>0.734583184360869</v>
       </c>
       <c r="N7">
-        <v>0.6520997847274188</v>
+        <v>0.734583184360869</v>
       </c>
       <c r="O7">
-        <v>0.6710216098410882</v>
+        <v>0.7394702448760566</v>
       </c>
       <c r="P7">
-        <v>0.6710216098410882</v>
+        <v>0.7394702448760566</v>
       </c>
       <c r="Q7">
-        <v>0.6877937489785898</v>
+        <v>0.7414599854304019</v>
       </c>
       <c r="R7">
-        <v>0.6877937489785898</v>
+        <v>0.7414599854304019</v>
       </c>
       <c r="S7">
-        <v>0.7100094783121637</v>
+        <v>0.7507865289915948</v>
       </c>
       <c r="T7">
-        <v>0.7233193670729009</v>
+        <v>0.7507865289915948</v>
       </c>
       <c r="U7">
-        <v>0.7233193670729009</v>
+        <v>0.7507865289915948</v>
       </c>
       <c r="V7">
-        <v>0.7574342197408913</v>
+        <v>0.7761505626492667</v>
       </c>
       <c r="W7">
-        <v>0.7893620918277516</v>
+        <v>0.7985670111424401</v>
       </c>
       <c r="X7">
-        <v>0.7893620918277516</v>
+        <v>0.7985670111424401</v>
       </c>
       <c r="Y7">
-        <v>0.7893620918277516</v>
+        <v>0.7985670111424401</v>
       </c>
       <c r="Z7">
-        <v>0.7893620918277516</v>
+        <v>0.7985670111424401</v>
       </c>
       <c r="AA7">
-        <v>0.8321844620068009</v>
+        <v>0.8356669283542068</v>
       </c>
       <c r="AB7">
-        <v>0.8530094873682681</v>
+        <v>0.8431190984382138</v>
       </c>
       <c r="AC7">
-        <v>0.9255971542193681</v>
+        <v>0.9203363114524429</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2917,97 +2917,97 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1547489615348349</v>
+        <v>0.135427404464481</v>
       </c>
       <c r="F8">
-        <v>0.322012846358006</v>
+        <v>0.2811482347468754</v>
       </c>
       <c r="G8">
-        <v>0.3772563185819376</v>
+        <v>0.3347331581110887</v>
       </c>
       <c r="H8">
-        <v>0.4538156899141975</v>
+        <v>0.4058502405751658</v>
       </c>
       <c r="I8">
-        <v>0.4812955086284849</v>
+        <v>0.436599777636842</v>
       </c>
       <c r="J8">
-        <v>0.4812955086284849</v>
+        <v>0.436599777636842</v>
       </c>
       <c r="K8">
-        <v>0.4987411015329969</v>
+        <v>0.4590962430149405</v>
       </c>
       <c r="L8">
-        <v>0.6260168681450649</v>
+        <v>0.5719271610764936</v>
       </c>
       <c r="M8">
-        <v>0.687950065195035</v>
+        <v>0.6310143304115836</v>
       </c>
       <c r="N8">
-        <v>0.7483966647278705</v>
+        <v>0.688878784999554</v>
       </c>
       <c r="O8">
-        <v>0.7608362239989552</v>
+        <v>0.7072578271493625</v>
       </c>
       <c r="P8">
-        <v>0.7804274939165677</v>
+        <v>0.7315190949680909</v>
       </c>
       <c r="Q8">
-        <v>0.7804274939165677</v>
+        <v>0.7348612340551068</v>
       </c>
       <c r="R8">
-        <v>0.7804274939165677</v>
+        <v>0.7348612340551068</v>
       </c>
       <c r="S8">
-        <v>0.7804274939165677</v>
+        <v>0.7348612340551068</v>
       </c>
       <c r="T8">
-        <v>0.7968786047909833</v>
+        <v>0.7565397457975177</v>
       </c>
       <c r="U8">
-        <v>0.7968786047909833</v>
+        <v>0.7565397457975177</v>
       </c>
       <c r="V8">
-        <v>0.7968786047909833</v>
+        <v>0.7645021802816161</v>
       </c>
       <c r="W8">
-        <v>0.8509907361631658</v>
+        <v>0.8171565847074425</v>
       </c>
       <c r="X8">
-        <v>0.8509907361631658</v>
+        <v>0.8215254568506253</v>
       </c>
       <c r="Y8">
-        <v>0.8509907361631658</v>
+        <v>0.8215254568506253</v>
       </c>
       <c r="Z8">
-        <v>0.8509907361631658</v>
+        <v>0.821847749175068</v>
       </c>
       <c r="AA8">
-        <v>0.8730503765648779</v>
+        <v>0.8481392322722942</v>
       </c>
       <c r="AB8">
-        <v>0.9558361616619852</v>
+        <v>0.9243774910091674</v>
       </c>
       <c r="AC8">
-        <v>0.9674995685887274</v>
+        <v>0.9421181539699213</v>
       </c>
       <c r="AD8">
-        <v>0.9784349561438146</v>
+        <v>0.9592600267324867</v>
       </c>
       <c r="AE8">
-        <v>0.9831064272061427</v>
+        <v>0.9712498775239776</v>
       </c>
       <c r="AF8">
-        <v>0.9831064272061427</v>
+        <v>0.9712498775239776</v>
       </c>
       <c r="AG8">
-        <v>0.9831064272061427</v>
+        <v>0.9712498775239776</v>
       </c>
       <c r="AH8">
-        <v>0.9831064272061427</v>
+        <v>0.9712498775239776</v>
       </c>
       <c r="AI8">
-        <v>0.9831064272061427</v>
+        <v>0.9779575668143574</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -3045,97 +3045,97 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1878381386931893</v>
+        <v>0.1926999788944368</v>
       </c>
       <c r="F9">
-        <v>0.1878381386931893</v>
+        <v>0.1926999788944368</v>
       </c>
       <c r="G9">
-        <v>0.319776156191471</v>
+        <v>0.3273932731745694</v>
       </c>
       <c r="H9">
-        <v>0.3592325613015353</v>
+        <v>0.3661198395164739</v>
       </c>
       <c r="I9">
-        <v>0.4393963905589458</v>
+        <v>0.4470878655100068</v>
       </c>
       <c r="J9">
-        <v>0.4393963905589458</v>
+        <v>0.4470878655100068</v>
       </c>
       <c r="K9">
-        <v>0.4393963905589458</v>
+        <v>0.4470878655100068</v>
       </c>
       <c r="L9">
-        <v>0.5227353885321973</v>
+        <v>0.5313507145980159</v>
       </c>
       <c r="M9">
-        <v>0.6446628034674997</v>
+        <v>0.6556561626041625</v>
       </c>
       <c r="N9">
-        <v>0.7039233490554091</v>
+        <v>0.7149331768914355</v>
       </c>
       <c r="O9">
-        <v>0.7836721764741892</v>
+        <v>0.7954705619444264</v>
       </c>
       <c r="P9">
-        <v>0.7836721764741892</v>
+        <v>0.7954705619444264</v>
       </c>
       <c r="Q9">
-        <v>0.78904872685162</v>
+        <v>0.7988329941320518</v>
       </c>
       <c r="R9">
-        <v>0.78904872685162</v>
+        <v>0.7988329941320518</v>
       </c>
       <c r="S9">
-        <v>0.78904872685162</v>
+        <v>0.7988329941320518</v>
       </c>
       <c r="T9">
-        <v>0.7922638035387989</v>
+        <v>0.7999524987557923</v>
       </c>
       <c r="U9">
-        <v>0.7944000313905123</v>
+        <v>0.7999524987557923</v>
       </c>
       <c r="V9">
-        <v>0.7944000313905123</v>
+        <v>0.7999524987557923</v>
       </c>
       <c r="W9">
-        <v>0.8371042970836622</v>
+        <v>0.8420493194099798</v>
       </c>
       <c r="X9">
-        <v>0.8803620975259289</v>
+        <v>0.8847205344470189</v>
       </c>
       <c r="Y9">
-        <v>0.8803620975259289</v>
+        <v>0.8847205344470189</v>
       </c>
       <c r="Z9">
-        <v>0.8803620975259289</v>
+        <v>0.8847205344470189</v>
       </c>
       <c r="AA9">
-        <v>0.8803620975259289</v>
+        <v>0.8847205344470189</v>
       </c>
       <c r="AB9">
-        <v>0.9408775000501164</v>
+        <v>0.9452996942213288</v>
       </c>
       <c r="AC9">
-        <v>0.9754086036500328</v>
+        <v>0.9789153519422421</v>
       </c>
       <c r="AD9">
-        <v>0.9754086036500328</v>
+        <v>0.9789153519422421</v>
       </c>
       <c r="AE9">
-        <v>0.9869490006296744</v>
+        <v>0.9886739116913578</v>
       </c>
       <c r="AF9">
-        <v>0.9869490006296744</v>
+        <v>0.9886739116913578</v>
       </c>
       <c r="AG9">
-        <v>0.9869490006296744</v>
+        <v>0.9886739116913578</v>
       </c>
       <c r="AH9">
-        <v>0.9869490006296744</v>
+        <v>0.9886739116913578</v>
       </c>
       <c r="AI9">
-        <v>0.9869490006296744</v>
+        <v>0.9886739116913578</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -3173,97 +3173,97 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1220151380554086</v>
+        <v>0.1350480015792723</v>
       </c>
       <c r="F10">
-        <v>0.1220151380554086</v>
+        <v>0.1350480015792723</v>
       </c>
       <c r="G10">
-        <v>0.3123388709465143</v>
+        <v>0.3510495475542198</v>
       </c>
       <c r="H10">
-        <v>0.3477621911588222</v>
+        <v>0.3834762818255546</v>
       </c>
       <c r="I10">
-        <v>0.4576124990304752</v>
+        <v>0.5041075599644571</v>
       </c>
       <c r="J10">
-        <v>0.4576124990304752</v>
+        <v>0.5041075599644571</v>
       </c>
       <c r="K10">
-        <v>0.4576124990304752</v>
+        <v>0.5041075599644571</v>
       </c>
       <c r="L10">
-        <v>0.4903791877019306</v>
+        <v>0.5333858801906393</v>
       </c>
       <c r="M10">
-        <v>0.5616158452822172</v>
+        <v>0.6082555398881148</v>
       </c>
       <c r="N10">
-        <v>0.6028974055834292</v>
+        <v>0.6476249627077695</v>
       </c>
       <c r="O10">
-        <v>0.663501073746059</v>
+        <v>0.7098933065246966</v>
       </c>
       <c r="P10">
-        <v>0.663501073746059</v>
+        <v>0.7098933065246966</v>
       </c>
       <c r="Q10">
-        <v>0.6695601042802892</v>
+        <v>0.7098933065246966</v>
       </c>
       <c r="R10">
-        <v>0.6825691378188536</v>
+        <v>0.7157565321232977</v>
       </c>
       <c r="S10">
-        <v>0.6825691378188536</v>
+        <v>0.7157565321232977</v>
       </c>
       <c r="T10">
-        <v>0.6906307820264757</v>
+        <v>0.7157565321232977</v>
       </c>
       <c r="U10">
-        <v>0.7061929495213486</v>
+        <v>0.7246455152210433</v>
       </c>
       <c r="V10">
-        <v>0.7061929495213486</v>
+        <v>0.7246455152210433</v>
       </c>
       <c r="W10">
-        <v>0.7374731527282685</v>
+        <v>0.7521621791382902</v>
       </c>
       <c r="X10">
-        <v>0.7811514438845014</v>
+        <v>0.7943720037864864</v>
       </c>
       <c r="Y10">
-        <v>0.7811514438845014</v>
+        <v>0.7943720037864864</v>
       </c>
       <c r="Z10">
-        <v>0.7811514438845014</v>
+        <v>0.7943720037864864</v>
       </c>
       <c r="AA10">
-        <v>0.7861828908078149</v>
+        <v>0.7943720037864864</v>
       </c>
       <c r="AB10">
-        <v>0.8685431015036142</v>
+        <v>0.882424353790215</v>
       </c>
       <c r="AC10">
-        <v>0.9481202421221397</v>
+        <v>0.9671784455352461</v>
       </c>
       <c r="AD10">
-        <v>0.9565619306304343</v>
+        <v>0.9676288417590422</v>
       </c>
       <c r="AE10">
-        <v>0.9914634960920099</v>
+        <v>0.9994372366182041</v>
       </c>
       <c r="AF10">
-        <v>0.9914634960920099</v>
+        <v>0.9994372366182041</v>
       </c>
       <c r="AG10">
-        <v>0.9914634960920099</v>
+        <v>0.9994372366182041</v>
       </c>
       <c r="AH10">
-        <v>0.9914634960920099</v>
+        <v>0.9994372366182041</v>
       </c>
       <c r="AI10">
-        <v>0.9914634960920099</v>
+        <v>0.9994372366182041</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -3301,118 +3301,118 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1521389997418707</v>
+        <v>0.1427644271767594</v>
       </c>
       <c r="F11">
-        <v>0.1582915347341873</v>
+        <v>0.1535112055633822</v>
       </c>
       <c r="G11">
-        <v>0.3138016047598622</v>
+        <v>0.299324139829738</v>
       </c>
       <c r="H11">
-        <v>0.3268709603888239</v>
+        <v>0.3163258980812375</v>
       </c>
       <c r="I11">
-        <v>0.4626770837311736</v>
+        <v>0.4443202714455166</v>
       </c>
       <c r="J11">
-        <v>0.4626770837311736</v>
+        <v>0.4443202714455166</v>
       </c>
       <c r="K11">
-        <v>0.4626770837311736</v>
+        <v>0.4443202714455166</v>
       </c>
       <c r="L11">
-        <v>0.5331304251874688</v>
+        <v>0.51321518910825</v>
       </c>
       <c r="M11">
-        <v>0.6885385630115139</v>
+        <v>0.658935944626266</v>
       </c>
       <c r="N11">
-        <v>0.7183090400646429</v>
+        <v>0.691040765934739</v>
       </c>
       <c r="O11">
-        <v>0.7812233295305291</v>
+        <v>0.7531180110167447</v>
       </c>
       <c r="P11">
-        <v>0.7812233295305291</v>
+        <v>0.7531180110167447</v>
       </c>
       <c r="Q11">
-        <v>0.796236037491333</v>
+        <v>0.7718771705866525</v>
       </c>
       <c r="R11">
-        <v>0.796236037491333</v>
+        <v>0.7718771705866525</v>
       </c>
       <c r="S11">
-        <v>0.796236037491333</v>
+        <v>0.7718771705866525</v>
       </c>
       <c r="T11">
-        <v>0.796236037491333</v>
+        <v>0.7728999736895873</v>
       </c>
       <c r="U11">
-        <v>0.796236037491333</v>
+        <v>0.7728999736895873</v>
       </c>
       <c r="V11">
-        <v>0.796236037491333</v>
+        <v>0.7728999736895873</v>
       </c>
       <c r="W11">
-        <v>0.8383066003927795</v>
+        <v>0.8161279386155007</v>
       </c>
       <c r="X11">
-        <v>0.856717703220824</v>
+        <v>0.8379603152867559</v>
       </c>
       <c r="Y11">
-        <v>0.856717703220824</v>
+        <v>0.8379603152867559</v>
       </c>
       <c r="Z11">
-        <v>0.856717703220824</v>
+        <v>0.8379603152867559</v>
       </c>
       <c r="AA11">
-        <v>0.8632241178945848</v>
+        <v>0.8490271121324805</v>
       </c>
       <c r="AB11">
-        <v>0.9062757968393574</v>
+        <v>0.8931423143337975</v>
       </c>
       <c r="AC11">
-        <v>0.9468564550889803</v>
+        <v>0.9350229371660951</v>
       </c>
       <c r="AD11">
-        <v>0.9546777315299083</v>
+        <v>0.9472787823203958</v>
       </c>
       <c r="AE11">
-        <v>0.9911444814560293</v>
+        <v>0.9854391389955628</v>
       </c>
       <c r="AF11">
-        <v>0.9911444814560293</v>
+        <v>0.986808874914387</v>
       </c>
       <c r="AG11">
-        <v>0.9911444814560293</v>
+        <v>0.986808874914387</v>
       </c>
       <c r="AH11">
-        <v>0.9911444814560293</v>
+        <v>0.986808874914387</v>
       </c>
       <c r="AI11">
-        <v>0.9911444814560293</v>
+        <v>0.986808874914387</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5431105480410863</v>
+        <v>0.5145232918060307</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.671947618443147</v>
+        <v>0.6294976516452451</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -3562,16 +3562,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.6027289162082684</v>
+      </c>
+      <c r="G4">
         <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5182884579897438</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6218783922261946</v>
+        <v>0.5709318882508623</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7512683860311038</v>
+        <v>0.7132894790946599</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3685,16 +3685,16 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>0.0245084867605008</v>
+        <v>0.01241669343984975</v>
       </c>
       <c r="F7">
-        <v>0.6368039469386453</v>
+        <v>0.5264503532841951</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6260168681450649</v>
+        <v>0.5719271610764936</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5227353885321973</v>
+        <v>0.5313507145980159</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -3808,16 +3808,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5616158452822172</v>
+        <v>0.5041075599644571</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5331304251874688</v>
+        <v>0.51321518910825</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -3944,16 +3944,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.73040241197601</v>
+        <v>0.7779694025793593</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -3985,16 +3985,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7049668936946946</v>
+        <v>0.7010048333703571</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7733334292539488</v>
+        <v>0.7204399327855525</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8484975796106307</v>
+        <v>0.7634118600863199</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7512683860311038</v>
+        <v>0.7132894790946599</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -4149,16 +4149,16 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>0.0245084867605008</v>
+        <v>0.01241669343984975</v>
       </c>
       <c r="F7">
-        <v>0.7100094783121637</v>
+        <v>0.734583184360869</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -4190,16 +4190,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7483966647278705</v>
+        <v>0.7072578271493625</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7039233490554091</v>
+        <v>0.7149331768914355</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -4272,16 +4272,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7061929495213486</v>
+        <v>0.7098933065246966</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -4313,16 +4313,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7183090400646429</v>
+        <v>0.7531180110167447</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -4408,16 +4408,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8158912430736773</v>
+        <v>0.8089714839755127</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8728213419312186</v>
+        <v>0.8456578234209884</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -4490,16 +4490,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8027276414430613</v>
+        <v>0.8249737611500497</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -4531,16 +4531,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8484975796106307</v>
+        <v>0.8006882873347583</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -4572,16 +4572,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8361170198153358</v>
+      </c>
+      <c r="G6">
         <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8286443769692186</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -4616,10 +4616,10 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>0.0245084867605008</v>
+        <v>0.01241669343984975</v>
       </c>
       <c r="F7">
-        <v>0.8321844620068009</v>
+        <v>0.8356669283542068</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8509907361631658</v>
+        <v>0.8171565847074425</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8371042970836622</v>
+        <v>0.8420493194099798</v>
       </c>
       <c r="G9">
         <v>20</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8685431015036142</v>
+        <v>0.882424353790215</v>
       </c>
       <c r="G10">
         <v>25</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8383066003927795</v>
+        <v>0.8161279386155007</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -4872,16 +4872,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.904095484347118</v>
+        <v>0.9423975293992809</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -4913,16 +4913,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.905765447380221</v>
+        <v>0.9361966899111983</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -4954,16 +4954,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9023315075859911</v>
+        <v>0.9071803120605785</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -4995,16 +4995,16 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9060005950303169</v>
+        <v>0.933948285431156</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -5036,16 +5036,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9019915515409712</v>
+      </c>
+      <c r="G6">
         <v>22</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9180015935200972</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -5080,10 +5080,10 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>0.0245084867605008</v>
+        <v>0.01241669343984975</v>
       </c>
       <c r="F7">
-        <v>0.9255971542193681</v>
+        <v>0.9203363114524429</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9558361616619852</v>
+        <v>0.9243774910091674</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9408775000501164</v>
+        <v>0.9452996942213288</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9481202421221397</v>
+        <v>0.9671784455352461</v>
       </c>
       <c r="G10">
         <v>26</v>
@@ -5241,16 +5241,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9062757968393574</v>
+        <v>0.9350229371660951</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>3</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/3_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/3_225-80R17.xlsx
@@ -19,7 +19,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="100">
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
   <si>
     <t>Signal_Value_50</t>
   </si>
@@ -580,15 +676,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:BV11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:74">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -713,10 +809,106 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:74">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -728,37 +920,37 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2186189395927225</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.120116085460771</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.09249720204156939</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08329106471096781</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01989428807811529</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1606852488909045</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.08286657380430876</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0003779875403801499</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -767,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01658504085441384</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0005814751249050582</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01345757787645441</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.04775268350101491</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.02275026264767151</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -794,57 +986,153 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.007483854679735284</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05543924459534641</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01136047729784652</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0009832627510761543</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.02493366206260359</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.003533989186074265</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.003385986764646371</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.01340509253847257</v>
+        <v>0.001997815243343007</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.1948045696230898</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.1096316619660294</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.08575031733104448</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.004832172687586564</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.07779000499646815</v>
       </c>
       <c r="AP2">
+        <v>0.001798029114049362</v>
+      </c>
+      <c r="AQ2">
+        <v>0.02297242788675338</v>
+      </c>
+      <c r="AR2">
+        <v>0.004525482395275555</v>
+      </c>
+      <c r="AS2">
+        <v>0.1447107836931035</v>
+      </c>
+      <c r="AT2">
+        <v>0.0774229585274826</v>
+      </c>
+      <c r="AU2">
+        <v>0.006097180177877449</v>
+      </c>
+      <c r="AV2">
+        <v>0.001808670073215128</v>
+      </c>
+      <c r="AW2">
+        <v>0.002655270989355536</v>
+      </c>
+      <c r="AX2">
+        <v>0.02011100614742857</v>
+      </c>
+      <c r="AY2">
+        <v>0.005770343984591197</v>
+      </c>
+      <c r="AZ2">
+        <v>0.006273130706406107</v>
+      </c>
+      <c r="BA2">
+        <v>0.01740676861268886</v>
+      </c>
+      <c r="BB2">
+        <v>0.0001228924481057579</v>
+      </c>
+      <c r="BC2">
+        <v>0.04706087244745616</v>
+      </c>
+      <c r="BD2">
+        <v>0.02544191631353412</v>
+      </c>
+      <c r="BE2">
+        <v>0.002446222140387757</v>
+      </c>
+      <c r="BF2">
+        <v>0.0008407992405984093</v>
+      </c>
+      <c r="BG2">
+        <v>0.01224144240273533</v>
+      </c>
+      <c r="BH2">
+        <v>0.05370724593639944</v>
+      </c>
+      <c r="BI2">
+        <v>0.0155934591862425</v>
+      </c>
+      <c r="BJ2">
+        <v>0.006620546227338916</v>
+      </c>
+      <c r="BK2">
+        <v>0.02732984614445429</v>
+      </c>
+      <c r="BL2">
+        <v>0.002938645569983791</v>
+      </c>
+      <c r="BM2">
+        <v>0.008826094371309361</v>
+      </c>
+      <c r="BN2">
+        <v>0.001773302966374998</v>
+      </c>
+      <c r="BO2">
+        <v>0.008698120449290685</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:74">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -856,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1236835037893844</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02681841526212456</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.005114566038741051</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1256821595572906</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -880,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3481990069977045</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.035764405202694</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.00429094828722678</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.03145182823519132</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -901,46 +1189,46 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.04731736251113083</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01114817079968709</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001149644768235752</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0850378119715775</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01456236072808816</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001149644768235752</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01321062553349315</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02057606379628018</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.04104017166411263</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.04642241209041445</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0155304078026164</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.001850490195770569</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -952,27 +1240,123 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>0.1143047475935766</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.0038317365852091</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.02821332797069782</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.008923455640728679</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.1160811059804073</v>
       </c>
       <c r="AP3">
+        <v>0.0005161145237707665</v>
+      </c>
+      <c r="AQ3">
+        <v>0.004210466424905664</v>
+      </c>
+      <c r="AR3">
+        <v>0.0002740868809758474</v>
+      </c>
+      <c r="AS3">
+        <v>0.3138488629443794</v>
+      </c>
+      <c r="AT3">
+        <v>0.0361643140857714</v>
+      </c>
+      <c r="AU3">
+        <v>0.008191443493395406</v>
+      </c>
+      <c r="AV3">
+        <v>0.001927695573654986</v>
+      </c>
+      <c r="AW3">
+        <v>0.03233139678801091</v>
+      </c>
+      <c r="AX3">
+        <v>0.004377749259566745</v>
+      </c>
+      <c r="AY3">
+        <v>0.0004849286109849877</v>
+      </c>
+      <c r="AZ3">
+        <v>0.04643231167549058</v>
+      </c>
+      <c r="BA3">
+        <v>0.01428598209077186</v>
+      </c>
+      <c r="BB3">
+        <v>0.005399526575462945</v>
+      </c>
+      <c r="BC3">
+        <v>0.07995736277735395</v>
+      </c>
+      <c r="BD3">
+        <v>0.01732043405140228</v>
+      </c>
+      <c r="BE3">
+        <v>0.003432437299855453</v>
+      </c>
+      <c r="BF3">
+        <v>0.005399526575462945</v>
+      </c>
+      <c r="BG3">
+        <v>0.01611904350268933</v>
+      </c>
+      <c r="BH3">
+        <v>0.02266527234353281</v>
+      </c>
+      <c r="BI3">
+        <v>0.04085329162316848</v>
+      </c>
+      <c r="BJ3">
+        <v>0.04563690072420772</v>
+      </c>
+      <c r="BK3">
+        <v>0.01818081159479818</v>
+      </c>
+      <c r="BL3">
+        <v>0.001176394029767957</v>
+      </c>
+      <c r="BM3">
+        <v>0.006022421559714116</v>
+      </c>
+      <c r="BN3">
+        <v>0.0004443563886240514</v>
+      </c>
+      <c r="BO3">
+        <v>0.001206676130133449</v>
+      </c>
+      <c r="BP3">
+        <v>0.001785818701528141</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:74">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -984,46 +1368,46 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1818975903997836</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.006300044857875491</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1941600700420932</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06510099033143289</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.004237964546944108</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02985898995798298</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.007690904426925751</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1134823616452304</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1177110165772841</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0187839508575596</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02013404557920459</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1032,75 +1416,171 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.03637902700808532</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0292368049196477</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0402617360626054</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001774124784726753</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.003258558421570599</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03850884394788002</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.03079073980894867</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002025245427321486</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.03075557396515459</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.004432508987950968</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.007250217869333705</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.009658156643574424</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.007907245237137544</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.1672943894491767</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.009475992028740143</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.1783153002459519</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.002427505979749975</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.06232337638599228</v>
       </c>
       <c r="AP4">
+        <v>0.007622696135456951</v>
+      </c>
+      <c r="AQ4">
+        <v>0.03064960780532095</v>
+      </c>
+      <c r="AR4">
+        <v>0.01072602788514683</v>
+      </c>
+      <c r="AS4">
+        <v>0.1058061623337282</v>
+      </c>
+      <c r="AT4">
+        <v>0.1096066684430888</v>
+      </c>
+      <c r="AU4">
+        <v>0.0002295540595781445</v>
+      </c>
+      <c r="AV4">
+        <v>0.02069590989454718</v>
+      </c>
+      <c r="AW4">
+        <v>0.003813823004233582</v>
+      </c>
+      <c r="AX4">
+        <v>0.02190930832035235</v>
+      </c>
+      <c r="AY4">
+        <v>3.990454870400636E-05</v>
+      </c>
+      <c r="AZ4">
+        <v>0.0001601926928710741</v>
+      </c>
+      <c r="BA4">
+        <v>0.03650949494208872</v>
+      </c>
+      <c r="BB4">
+        <v>0.001563796129168273</v>
+      </c>
+      <c r="BC4">
+        <v>0.0300904186358709</v>
+      </c>
+      <c r="BD4">
+        <v>0.03999908199037657</v>
+      </c>
+      <c r="BE4">
+        <v>3.769628417515837E-05</v>
+      </c>
+      <c r="BF4">
+        <v>0.003973272573693897</v>
+      </c>
+      <c r="BG4">
+        <v>0.006742454303754827</v>
+      </c>
+      <c r="BH4">
+        <v>0.03842366917043566</v>
+      </c>
+      <c r="BI4">
+        <v>0.03148701853234641</v>
+      </c>
+      <c r="BJ4">
+        <v>0.005634013524189702</v>
+      </c>
+      <c r="BK4">
+        <v>0.03145541320953627</v>
+      </c>
+      <c r="BL4">
+        <v>0.007797543066329512</v>
+      </c>
+      <c r="BM4">
+        <v>0.01032996058210296</v>
+      </c>
+      <c r="BN4">
+        <v>0.01249409697287334</v>
+      </c>
+      <c r="BO4">
+        <v>0.001445186554745951</v>
+      </c>
+      <c r="BP4">
+        <v>0.01092046431567265</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:74">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1130,105 +1610,201 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
         <v>0.03070646743272046</v>
       </c>
-      <c r="L5">
+      <c r="AR5">
         <v>0.06238350719883395</v>
       </c>
-      <c r="M5">
+      <c r="AS5">
         <v>0.1649282404894097</v>
       </c>
-      <c r="N5">
+      <c r="AT5">
         <v>3.185704072546546E-05</v>
       </c>
-      <c r="O5">
+      <c r="AU5">
         <v>0.03116400640146025</v>
       </c>
-      <c r="P5">
+      <c r="AV5">
         <v>0.06082650935516102</v>
       </c>
-      <c r="Q5">
+      <c r="AW5">
         <v>0.02417586505841957</v>
       </c>
-      <c r="R5">
+      <c r="AX5">
         <v>0.0001465301131271513</v>
       </c>
-      <c r="S5">
+      <c r="AY5">
         <v>0.1965689051610046</v>
       </c>
-      <c r="T5">
+      <c r="AZ5">
         <v>0.1924799718354576</v>
       </c>
-      <c r="U5">
+      <c r="BA5">
         <v>0.001027489305108641</v>
       </c>
-      <c r="V5">
+      <c r="BB5">
         <v>0.001490832295081531</v>
       </c>
-      <c r="W5">
+      <c r="BC5">
         <v>0.004398035056523772</v>
       </c>
-      <c r="X5">
+      <c r="BD5">
         <v>0.02236784861548421</v>
       </c>
-      <c r="Y5">
+      <c r="BE5">
         <v>0.007992221976240121</v>
       </c>
-      <c r="Z5">
+      <c r="BF5">
         <v>0.002644013765741288</v>
       </c>
-      <c r="AA5">
+      <c r="BG5">
         <v>0.04393515315301869</v>
       </c>
-      <c r="AB5">
+      <c r="BH5">
         <v>0.0006100979346392748</v>
       </c>
-      <c r="AC5">
+      <c r="BI5">
         <v>0.04378187226108036</v>
       </c>
-      <c r="AD5">
+      <c r="BJ5">
         <v>0.04228886098191814</v>
       </c>
-      <c r="AE5">
+      <c r="BK5">
         <v>1.889650320722958E-06</v>
       </c>
-      <c r="AF5">
+      <c r="BL5">
         <v>0.001956997693053878</v>
       </c>
-      <c r="AG5">
+      <c r="BM5">
         <v>0.004377228693211937</v>
       </c>
-      <c r="AH5">
+      <c r="BN5">
         <v>0.00458751753128541</v>
       </c>
-      <c r="AI5">
+      <c r="BO5">
         <v>0.008911494641491198</v>
       </c>
-      <c r="AJ5">
+      <c r="BP5">
         <v>0.008358946097516202</v>
       </c>
-      <c r="AK5">
+      <c r="BQ5">
         <v>0.0137030138714294</v>
       </c>
-      <c r="AL5">
+      <c r="BR5">
         <v>0.00340512362426599</v>
       </c>
-      <c r="AM5">
+      <c r="BS5">
         <v>0.004371177793816167</v>
       </c>
-      <c r="AN5">
+      <c r="BT5">
         <v>0.01591714635929743</v>
       </c>
-      <c r="AO5">
+      <c r="BU5">
         <v>9.312182668336009E-05</v>
       </c>
-      <c r="AP5">
+      <c r="BV5">
         <v>0.0003680567864724976</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:74">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1237,46 +1813,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007091313295512075</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1049949110475123</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.123776805681551</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07691303027644025</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.04692231362888829</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03089950240079258</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.003434254990129039</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08936549930134371</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2298918484724906</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01008274047929926</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.04300952122965242</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1285,46 +1861,46 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.03278054585944012</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.03695473315228413</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.05362577799131486</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0122487537343206</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02550573620511606</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.007962242476489969</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02955797429411245</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0264066469527509</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.002633698883852073</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001657753201857966</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.00428439644484937</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1333,30 +1909,126 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.01106431202839964</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>0.09602121818692165</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.1123194104550467</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.004004922101644113</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>0.07165286233276683</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>0.04562809349529232</v>
       </c>
       <c r="AP6">
+        <v>0.0317241257029215</v>
+      </c>
+      <c r="AQ6">
+        <v>0.007890860118555781</v>
+      </c>
+      <c r="AR6">
+        <v>0.08245862705114268</v>
+      </c>
+      <c r="AS6">
+        <v>0.2044018868849102</v>
+      </c>
+      <c r="AT6">
+        <v>0.004910748196010343</v>
+      </c>
+      <c r="AU6">
+        <v>0.01366015533108222</v>
+      </c>
+      <c r="AV6">
+        <v>0.0006319133739545643</v>
+      </c>
+      <c r="AW6">
+        <v>0.04223272555874611</v>
+      </c>
+      <c r="AX6">
+        <v>0.004713537139991088</v>
+      </c>
+      <c r="AY6">
+        <v>0.004810392134630935</v>
+      </c>
+      <c r="AZ6">
+        <v>0.03335642151498378</v>
+      </c>
+      <c r="BA6">
+        <v>2.381211966310289E-05</v>
+      </c>
+      <c r="BB6">
+        <v>0.03697861769846365</v>
+      </c>
+      <c r="BC6">
+        <v>0.05144509721989789</v>
+      </c>
+      <c r="BD6">
+        <v>0.002110145941847206</v>
+      </c>
+      <c r="BE6">
+        <v>0.01553973676700758</v>
+      </c>
+      <c r="BF6">
+        <v>0.001558624829912183</v>
+      </c>
+      <c r="BG6">
+        <v>0.02704362673200665</v>
+      </c>
+      <c r="BH6">
+        <v>0.01182007024768883</v>
+      </c>
+      <c r="BI6">
+        <v>0.03056000017449152</v>
+      </c>
+      <c r="BJ6">
+        <v>0.02782540178012998</v>
+      </c>
+      <c r="BK6">
+        <v>0.007196168896197567</v>
+      </c>
+      <c r="BL6">
+        <v>0.00634928147198854</v>
+      </c>
+      <c r="BM6">
+        <v>0.008628579563484647</v>
+      </c>
+      <c r="BN6">
+        <v>0.0002141878667106461</v>
+      </c>
+      <c r="BO6">
+        <v>0.00122443708350967</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:74">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1365,22 +2037,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01241669343984975</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09349773640227689</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.192598369009404</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.03534214323208273</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1389,28 +2061,28 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1925954112005817</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.208132831076674</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.004887060515187669</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.001989740554345314</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.009326543561192937</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1419,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.02536403365767195</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.02241644849317338</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1434,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.03709991721176661</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.007452170084007016</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.07721721301422914</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.07966368854755708</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1461,30 +2133,126 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>0.02896392225508852</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>0.006051828818807127</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.07551283701178757</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.002748825932018265</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>0.1324068621873367</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>0.04212550440977485</v>
       </c>
       <c r="AP7">
+        <v>0.0007333062533395909</v>
+      </c>
+      <c r="AQ7">
+        <v>0.004829468889582216</v>
+      </c>
+      <c r="AR7">
+        <v>0.132405164098786</v>
+      </c>
+      <c r="AS7">
+        <v>0.141325252037053</v>
+      </c>
+      <c r="AT7">
+        <v>0.02183545444838471</v>
+      </c>
+      <c r="AU7">
+        <v>0.02464113324851704</v>
+      </c>
+      <c r="AV7">
+        <v>0.003770550942739339</v>
+      </c>
+      <c r="AW7">
+        <v>0.02297777156799906</v>
+      </c>
+      <c r="AX7">
+        <v>0.0004160010909656745</v>
+      </c>
+      <c r="AY7">
+        <v>0.02718985623384016</v>
+      </c>
+      <c r="AZ7">
+        <v>0.02029878744245002</v>
+      </c>
+      <c r="BA7">
+        <v>0.00137909110402925</v>
+      </c>
+      <c r="BB7">
+        <v>0.03639703626183199</v>
+      </c>
+      <c r="BC7">
+        <v>0.03470481714935787</v>
+      </c>
+      <c r="BD7">
+        <v>0.0002368703053699843</v>
+      </c>
+      <c r="BE7">
+        <v>0.001629893842209337</v>
+      </c>
+      <c r="BF7">
+        <v>0.008271661312697316</v>
+      </c>
+      <c r="BG7">
+        <v>0.04313464869495338</v>
+      </c>
+      <c r="BH7">
+        <v>0.02611377176299564</v>
+      </c>
+      <c r="BI7">
+        <v>0.06616613070787554</v>
+      </c>
+      <c r="BJ7">
+        <v>0.06757066100120199</v>
+      </c>
+      <c r="BK7">
+        <v>0.009793318942713057</v>
+      </c>
+      <c r="BL7">
+        <v>0.003462240133295053</v>
+      </c>
+      <c r="BM7">
+        <v>0.0001586454578493936</v>
+      </c>
+      <c r="BN7">
+        <v>0.009476166368465695</v>
+      </c>
+      <c r="BO7">
+        <v>0.00327252008668431</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:74">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1496,43 +2264,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.135427404464481</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1457208302823944</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0535849233642132</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07111708246407718</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.03074953706167622</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02249646537809847</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.112830918061553</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.05908716933509007</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.05786445458797041</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01837904214980849</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.02426126781872839</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.003342139087015992</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1541,40 +2309,40 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.0216785117424109</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.007962434484098382</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0526544044258264</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.004368872143182823</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.0003222923244427126</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.02629148309722613</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.07623825873687332</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01774066296075384</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.01714187276256542</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.01198985079149095</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1586,33 +2354,129 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.006707689290379792</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.02204243318564265</v>
+        <v>0.005051697330573153</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>0.1313267461217737</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.1411238883351734</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.05343018956026327</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.07011705932041629</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.03169578052468856</v>
       </c>
       <c r="AP8">
+        <v>1.949090418878901E-05</v>
+      </c>
+      <c r="AQ8">
+        <v>0.02384061953050518</v>
+      </c>
+      <c r="AR8">
+        <v>0.1098197187502474</v>
+      </c>
+      <c r="AS8">
+        <v>0.0586671521831419</v>
+      </c>
+      <c r="AT8">
+        <v>0.0575033889738996</v>
+      </c>
+      <c r="AU8">
+        <v>0.01992171229457686</v>
+      </c>
+      <c r="AV8">
+        <v>0.02552033440825919</v>
+      </c>
+      <c r="AW8">
+        <v>0.00560979317636561</v>
+      </c>
+      <c r="AX8">
+        <v>0.002141325732857763</v>
+      </c>
+      <c r="AY8">
+        <v>0.002428790805369258</v>
+      </c>
+      <c r="AZ8">
+        <v>0.02306210242312461</v>
+      </c>
+      <c r="BA8">
+        <v>0.0008342331300826566</v>
+      </c>
+      <c r="BB8">
+        <v>0.01000732727957521</v>
+      </c>
+      <c r="BC8">
+        <v>0.05254453433401467</v>
+      </c>
+      <c r="BD8">
+        <v>0.006587023686829819</v>
+      </c>
+      <c r="BE8">
+        <v>0.0009197631146317295</v>
+      </c>
+      <c r="BF8">
+        <v>0.002735544241271756</v>
+      </c>
+      <c r="BG8">
+        <v>0.02745266560285959</v>
+      </c>
+      <c r="BH8">
+        <v>0.07499132500533115</v>
+      </c>
+      <c r="BI8">
+        <v>0.01931411169474944</v>
+      </c>
+      <c r="BJ8">
+        <v>0.01874419135613558</v>
+      </c>
+      <c r="BK8">
+        <v>0.01384056715656775</v>
+      </c>
+      <c r="BL8">
+        <v>0.001026140263565468</v>
+      </c>
+      <c r="BM8">
+        <v>7.074034299505954E-10</v>
+      </c>
+      <c r="BN8">
+        <v>0.0009097041231599343</v>
+      </c>
+      <c r="BO8">
+        <v>0.00881307792839732</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:74">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1624,123 +2488,219 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1926999788944368</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1346932942801326</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.03872656634190449</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.08096802599353294</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.005612591536444633</v>
       </c>
       <c r="L9">
-        <v>0.08426284908800903</v>
+        <v>0.005691227653349194</v>
       </c>
       <c r="M9">
-        <v>0.1243054480061466</v>
+        <v>0.001429494912009393</v>
       </c>
       <c r="N9">
-        <v>0.05927701428727308</v>
+        <v>0.0008103215113377583</v>
       </c>
       <c r="O9">
-        <v>0.08053738505299093</v>
+        <v>0.001268899195358836</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.0002804419734065959</v>
       </c>
       <c r="Q9">
-        <v>0.003362432187625353</v>
+        <v>0.000121904741543634</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.0001699874023280892</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3.807015502357982E-05</v>
       </c>
       <c r="T9">
-        <v>0.001119504623740579</v>
+        <v>0.000595528955610753</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.001795668281277822</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.001985805604931003</v>
       </c>
       <c r="W9">
-        <v>0.04209682065418746</v>
+        <v>0.002304898929584089</v>
       </c>
       <c r="X9">
-        <v>0.04267121503703906</v>
+        <v>0.001049174099961179</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.002158918444409569</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.001304886283658476</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.001834151798975347</v>
       </c>
       <c r="AB9">
-        <v>0.0605791597743098</v>
+        <v>0.0008866103772107028</v>
       </c>
       <c r="AC9">
-        <v>0.03361565772091336</v>
+        <v>0.001316936122552787</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.002562821447470426</v>
       </c>
       <c r="AE9">
-        <v>0.009758559749115612</v>
+        <v>0.001404617794729855</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.001667099159743233</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>0.002885270601831902</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.001151662771320985</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.0002789312085687425</v>
       </c>
       <c r="AJ9">
-        <v>0.01132608830864247</v>
+        <v>0.0002085963324883308</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>0.3921524462970958</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.0001404060663061673</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.2828360621968027</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>0.1019821526534758</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>0.1815882128677109</v>
       </c>
       <c r="AP9">
+        <v>0.0004862026234818056</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:74">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1752,19 +2712,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1350480015792723</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2160015459749475</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.03242673427133479</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1206312781389025</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1773,16 +2733,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0292783202261821</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.07486965969747553</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.03936942281965473</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.06226834381692711</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1791,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.005863225598601118</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1800,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.008888983097745535</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.02751666391724689</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.04220982464819623</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1821,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.08805235000372862</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.08475409174503107</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.0004503962237960963</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.03180839485916188</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1845,30 +2805,126 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.0005627633817960949</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>0.1049674437907778</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.001400797341944928</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.1581337372841329</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.03757085903240478</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>0.0954992511950726</v>
       </c>
       <c r="AP10">
+        <v>0.005544817761501228</v>
+      </c>
+      <c r="AQ10">
+        <v>0.001081124076977301</v>
+      </c>
+      <c r="AR10">
+        <v>0.03550313603876979</v>
+      </c>
+      <c r="AS10">
+        <v>0.06544527820414063</v>
+      </c>
+      <c r="AT10">
+        <v>0.04213047430000574</v>
+      </c>
+      <c r="AU10">
+        <v>0.0571693557166318</v>
+      </c>
+      <c r="AV10">
+        <v>0.001103361536625408</v>
+      </c>
+      <c r="AW10">
+        <v>0.01471589550982442</v>
+      </c>
+      <c r="AX10">
+        <v>0.02012525725115296</v>
+      </c>
+      <c r="AY10">
+        <v>0.001203736244685588</v>
+      </c>
+      <c r="AZ10">
+        <v>0.01627457998532058</v>
+      </c>
+      <c r="BA10">
+        <v>0.02211242547757377</v>
+      </c>
+      <c r="BB10">
+        <v>0.000225142079242504</v>
+      </c>
+      <c r="BC10">
+        <v>0.034346167099924</v>
+      </c>
+      <c r="BD10">
+        <v>0.04399591006792213</v>
+      </c>
+      <c r="BE10">
+        <v>0.0003744651147784794</v>
+      </c>
+      <c r="BF10">
+        <v>0.001834043965733429</v>
+      </c>
+      <c r="BG10">
+        <v>0.0139161013993122</v>
+      </c>
+      <c r="BH10">
+        <v>0.07410301872787366</v>
+      </c>
+      <c r="BI10">
+        <v>0.07193688544849912</v>
+      </c>
+      <c r="BJ10">
+        <v>0.01657037800134817</v>
+      </c>
+      <c r="BK10">
+        <v>0.03716476421702015</v>
+      </c>
+      <c r="BL10">
+        <v>0.005496682828737303</v>
+      </c>
+      <c r="BM10">
+        <v>4.542252991572832E-05</v>
+      </c>
+      <c r="BN10">
+        <v>0.0002221972673957727</v>
+      </c>
+      <c r="BO10">
+        <v>0.003143115298530509</v>
+      </c>
+      <c r="BP10">
+        <v>0.01664417520622461</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:74">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1877,22 +2933,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1289576598712225</v>
       </c>
       <c r="E11">
-        <v>0.1427644271767594</v>
+        <v>0.1371722086224613</v>
       </c>
       <c r="F11">
-        <v>0.01074677838662283</v>
+        <v>0.1108572541184759</v>
       </c>
       <c r="G11">
-        <v>0.1458129342663558</v>
+        <v>0.08728226943151583</v>
       </c>
       <c r="H11">
-        <v>0.01700175825149948</v>
+        <v>0.0383211402848756</v>
       </c>
       <c r="I11">
-        <v>0.1279943733642791</v>
+        <v>0.00889396021611874</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1901,79 +2957,79 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06889491766273338</v>
+        <v>0.005189366586911691</v>
       </c>
       <c r="M11">
-        <v>0.145720755518016</v>
+        <v>0.002531589672623652</v>
       </c>
       <c r="N11">
-        <v>0.03210482130847291</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.06207724508200575</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.01875915956990776</v>
+        <v>0.01047693194846218</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.01784235877938976</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.05526353580437758</v>
       </c>
       <c r="T11">
-        <v>0.001022803102934828</v>
+        <v>0.08291171672196934</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.06440117340127581</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.03443673535385489</v>
       </c>
       <c r="W11">
-        <v>0.0432279649259134</v>
+        <v>0.04566020529645411</v>
       </c>
       <c r="X11">
-        <v>0.02183237667125517</v>
+        <v>0.01749238048205097</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.01378382852089009</v>
       </c>
       <c r="AA11">
-        <v>0.01106679684572463</v>
+        <v>0.02966011678656653</v>
       </c>
       <c r="AB11">
-        <v>0.04411520220131706</v>
+        <v>0.01723973796373033</v>
       </c>
       <c r="AC11">
-        <v>0.04188062283229756</v>
+        <v>0.00410129394805955</v>
       </c>
       <c r="AD11">
-        <v>0.01225584515430066</v>
+        <v>0.007115930008697341</v>
       </c>
       <c r="AE11">
-        <v>0.03816035667516705</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.001369735918824199</v>
+        <v>0.007724911564399942</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.007119464823348824</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.01050662962014331</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.05505760017212449</v>
       </c>
       <c r="AJ11">
-        <v>0.01319112508561293</v>
+        <v>0</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -1991,6 +3047,102 @@
         <v>0</v>
       </c>
       <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
         <v>0</v>
       </c>
     </row>
@@ -2001,15 +3153,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:BV11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:74">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2134,10 +3286,106 @@
       <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:74">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2149,123 +3397,219 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2186189395927225</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3387350250534935</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4312322270950629</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.4312322270950629</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5145232918060307</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5145232918060307</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5344175798841461</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5344175798841461</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6951028287750506</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7779694025793593</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7783473901197394</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7783473901197394</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7783473901197394</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.7949324309741532</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.7949324309741532</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.7955139060990583</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.8089714839755127</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.8089714839755127</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.8567241674765276</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.8794744301241991</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.8794744301241991</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.8794744301241991</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.8869582848039345</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.9423975293992809</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.9537580066971274</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.9547412694482036</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.9796749315108072</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9796749315108072</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.9832089206968815</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.9832089206968815</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.9865949074615279</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.001997815243343007</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.1968023848664328</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.3064340468324621</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.3921843641635066</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.3970165368510932</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0.4748065418475613</v>
       </c>
       <c r="AP2">
+        <v>0.4766045709616107</v>
+      </c>
+      <c r="AQ2">
+        <v>0.499576998848364</v>
+      </c>
+      <c r="AR2">
+        <v>0.5041024812436395</v>
+      </c>
+      <c r="AS2">
+        <v>0.6488132649367431</v>
+      </c>
+      <c r="AT2">
+        <v>0.7262362234642257</v>
+      </c>
+      <c r="AU2">
+        <v>0.7323334036421031</v>
+      </c>
+      <c r="AV2">
+        <v>0.7341420737153183</v>
+      </c>
+      <c r="AW2">
+        <v>0.7367973447046738</v>
+      </c>
+      <c r="AX2">
+        <v>0.7569083508521024</v>
+      </c>
+      <c r="AY2">
+        <v>0.7626786948366936</v>
+      </c>
+      <c r="AZ2">
+        <v>0.7689518255430997</v>
+      </c>
+      <c r="BA2">
+        <v>0.7863585941557886</v>
+      </c>
+      <c r="BB2">
+        <v>0.7864814866038943</v>
+      </c>
+      <c r="BC2">
+        <v>0.8335423590513504</v>
+      </c>
+      <c r="BD2">
+        <v>0.8589842753648845</v>
+      </c>
+      <c r="BE2">
+        <v>0.8614304975052723</v>
+      </c>
+      <c r="BF2">
+        <v>0.8622712967458708</v>
+      </c>
+      <c r="BG2">
+        <v>0.8745127391486061</v>
+      </c>
+      <c r="BH2">
+        <v>0.9282199850850055</v>
+      </c>
+      <c r="BI2">
+        <v>0.943813444271248</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9504339904985869</v>
+      </c>
+      <c r="BK2">
+        <v>0.9777638366430412</v>
+      </c>
+      <c r="BL2">
+        <v>0.980702482213025</v>
+      </c>
+      <c r="BM2">
+        <v>0.9895285765843344</v>
+      </c>
+      <c r="BN2">
+        <v>0.9913018795507094</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:74">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2277,123 +3621,219 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1236835037893844</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1236835037893844</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.150501919051509</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1556164850902501</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2812986446475407</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2812986446475407</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2812986446475407</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2812986446475407</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6294976516452451</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.665262056847939</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6695530051351658</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6695530051351658</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.7010048333703571</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.7010048333703571</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.7010048333703571</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.748322195881488</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.7594703666811751</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.7606200114494108</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.8456578234209884</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.8602201841490765</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.8602201841490765</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.8613698289173123</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.8745804544508055</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.8951565182470856</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.9361966899111983</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.9826191020016127</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.9981495098042291</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9981495098042291</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999997</v>
+        <v>0.1143047475935766</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999997</v>
+        <v>0.1181364841787857</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999997</v>
+        <v>0.1463498121494835</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999997</v>
+        <v>0.1552732677902122</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999997</v>
+        <v>0.2713543737706196</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999997</v>
+        <v>0.2718704882943903</v>
+      </c>
+      <c r="AQ3">
+        <v>0.276080954719296</v>
+      </c>
+      <c r="AR3">
+        <v>0.2763550416002719</v>
+      </c>
+      <c r="AS3">
+        <v>0.5902039045446512</v>
+      </c>
+      <c r="AT3">
+        <v>0.6263682186304226</v>
+      </c>
+      <c r="AU3">
+        <v>0.634559662123818</v>
+      </c>
+      <c r="AV3">
+        <v>0.636487357697473</v>
+      </c>
+      <c r="AW3">
+        <v>0.6688187544854839</v>
+      </c>
+      <c r="AX3">
+        <v>0.6731965037450507</v>
+      </c>
+      <c r="AY3">
+        <v>0.6736814323560357</v>
+      </c>
+      <c r="AZ3">
+        <v>0.7201137440315263</v>
+      </c>
+      <c r="BA3">
+        <v>0.7343997261222981</v>
+      </c>
+      <c r="BB3">
+        <v>0.739799252697761</v>
+      </c>
+      <c r="BC3">
+        <v>0.819756615475115</v>
+      </c>
+      <c r="BD3">
+        <v>0.8370770495265173</v>
+      </c>
+      <c r="BE3">
+        <v>0.8405094868263727</v>
+      </c>
+      <c r="BF3">
+        <v>0.8459090134018357</v>
+      </c>
+      <c r="BG3">
+        <v>0.862028056904525</v>
+      </c>
+      <c r="BH3">
+        <v>0.8846933292480578</v>
+      </c>
+      <c r="BI3">
+        <v>0.9255466208712263</v>
+      </c>
+      <c r="BJ3">
+        <v>0.971183521595434</v>
+      </c>
+      <c r="BK3">
+        <v>0.9893643331902322</v>
+      </c>
+      <c r="BL3">
+        <v>0.9905407272200002</v>
+      </c>
+      <c r="BM3">
+        <v>0.9965631487797143</v>
+      </c>
+      <c r="BN3">
+        <v>0.9970075051683384</v>
+      </c>
+      <c r="BO3">
+        <v>0.9982141812984718</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:74">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2405,123 +3845,219 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1818975903997836</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1881976352576591</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3823577052997523</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.3823577052997523</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4474586956311852</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4516966601781293</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4815556501361123</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4892465545630381</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6027289162082684</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7204399327855525</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7204399327855525</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7392238836431121</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.7392238836431121</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.7593579292223167</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.7593579292223167</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.7593579292223167</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.795736956230402</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.795736956230402</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.8249737611500497</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.8652354972126551</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.8652354972126551</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.8654129096911278</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.8686714681126985</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.9071803120605785</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.9379710518695271</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.9399962972968486</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9707518712620032</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9751843802499542</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.9824345981192879</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9920927547628623</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.9920927547628623</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>0.1672943894491767</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999999</v>
+        <v>0.1767703814779169</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999999</v>
+        <v>0.3550856817238688</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999999</v>
+        <v>0.3575131877036188</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999999</v>
+        <v>0.4198365640896111</v>
       </c>
       <c r="AP4">
-        <v>0.9999999999999999</v>
+        <v>0.427459260225068</v>
+      </c>
+      <c r="AQ4">
+        <v>0.458108868030389</v>
+      </c>
+      <c r="AR4">
+        <v>0.4688348959155358</v>
+      </c>
+      <c r="AS4">
+        <v>0.574641058249264</v>
+      </c>
+      <c r="AT4">
+        <v>0.6842477266923529</v>
+      </c>
+      <c r="AU4">
+        <v>0.684477280751931</v>
+      </c>
+      <c r="AV4">
+        <v>0.7051731906464782</v>
+      </c>
+      <c r="AW4">
+        <v>0.7089870136507118</v>
+      </c>
+      <c r="AX4">
+        <v>0.7308963219710641</v>
+      </c>
+      <c r="AY4">
+        <v>0.7309362265197682</v>
+      </c>
+      <c r="AZ4">
+        <v>0.7310964192126392</v>
+      </c>
+      <c r="BA4">
+        <v>0.767605914154728</v>
+      </c>
+      <c r="BB4">
+        <v>0.7691697102838962</v>
+      </c>
+      <c r="BC4">
+        <v>0.7992601289197672</v>
+      </c>
+      <c r="BD4">
+        <v>0.8392592109101438</v>
+      </c>
+      <c r="BE4">
+        <v>0.8392969071943189</v>
+      </c>
+      <c r="BF4">
+        <v>0.8432701797680128</v>
+      </c>
+      <c r="BG4">
+        <v>0.8500126340717676</v>
+      </c>
+      <c r="BH4">
+        <v>0.8884363032422034</v>
+      </c>
+      <c r="BI4">
+        <v>0.9199233217745497</v>
+      </c>
+      <c r="BJ4">
+        <v>0.9255573352987394</v>
+      </c>
+      <c r="BK4">
+        <v>0.9570127485082757</v>
+      </c>
+      <c r="BL4">
+        <v>0.9648102915746052</v>
+      </c>
+      <c r="BM4">
+        <v>0.9751402521567082</v>
+      </c>
+      <c r="BN4">
+        <v>0.9876343491295815</v>
+      </c>
+      <c r="BO4">
+        <v>0.9890795356843274</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:74">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2551,105 +4087,201 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
         <v>0.03070646743272046</v>
       </c>
-      <c r="L5">
+      <c r="AR5">
         <v>0.09308997463155441</v>
       </c>
-      <c r="M5">
+      <c r="AS5">
         <v>0.2580182151209641</v>
       </c>
-      <c r="N5">
+      <c r="AT5">
         <v>0.2580500721616896</v>
       </c>
-      <c r="O5">
+      <c r="AU5">
         <v>0.2892140785631498</v>
       </c>
-      <c r="P5">
+      <c r="AV5">
         <v>0.3500405879183109</v>
       </c>
-      <c r="Q5">
+      <c r="AW5">
         <v>0.3742164529767305</v>
       </c>
-      <c r="R5">
+      <c r="AX5">
         <v>0.3743629830898576</v>
       </c>
-      <c r="S5">
+      <c r="AY5">
         <v>0.5709318882508623</v>
       </c>
-      <c r="T5">
+      <c r="AZ5">
         <v>0.7634118600863199</v>
       </c>
-      <c r="U5">
+      <c r="BA5">
         <v>0.7644393493914285</v>
       </c>
-      <c r="V5">
+      <c r="BB5">
         <v>0.7659301816865101</v>
       </c>
-      <c r="W5">
+      <c r="BC5">
         <v>0.7703282167430339</v>
       </c>
-      <c r="X5">
+      <c r="BD5">
         <v>0.7926960653585181</v>
       </c>
-      <c r="Y5">
+      <c r="BE5">
         <v>0.8006882873347583</v>
       </c>
-      <c r="Z5">
+      <c r="BF5">
         <v>0.8033323011004996</v>
       </c>
-      <c r="AA5">
+      <c r="BG5">
         <v>0.8472674542535182</v>
       </c>
-      <c r="AB5">
+      <c r="BH5">
         <v>0.8478775521881575</v>
       </c>
-      <c r="AC5">
+      <c r="BI5">
         <v>0.8916594244492378</v>
       </c>
-      <c r="AD5">
+      <c r="BJ5">
         <v>0.933948285431156</v>
       </c>
-      <c r="AE5">
+      <c r="BK5">
         <v>0.9339501750814768</v>
       </c>
-      <c r="AF5">
+      <c r="BL5">
         <v>0.9359071727745307</v>
       </c>
-      <c r="AG5">
+      <c r="BM5">
         <v>0.9402844014677426</v>
       </c>
-      <c r="AH5">
+      <c r="BN5">
         <v>0.944871918999028</v>
       </c>
-      <c r="AI5">
+      <c r="BO5">
         <v>0.9537834136405192</v>
       </c>
-      <c r="AJ5">
+      <c r="BP5">
         <v>0.9621423597380354</v>
       </c>
-      <c r="AK5">
+      <c r="BQ5">
         <v>0.9758453736094648</v>
       </c>
-      <c r="AL5">
+      <c r="BR5">
         <v>0.9792504972337308</v>
       </c>
-      <c r="AM5">
+      <c r="BS5">
         <v>0.9836216750275469</v>
       </c>
-      <c r="AN5">
+      <c r="BT5">
         <v>0.9995388213868444</v>
       </c>
-      <c r="AO5">
+      <c r="BU5">
         <v>0.9996319432135277</v>
       </c>
-      <c r="AP5">
+      <c r="BV5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:74">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2658,126 +4290,222 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007091313295512075</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1120862243430244</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2358630300245754</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2358630300245754</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.3127760603010157</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3596983739299039</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3905978763306965</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3940321313208256</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4833976306221693</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7132894790946599</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7132894790946599</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7233722195739591</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7233722195739591</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7663817408036115</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.7663817408036115</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.7663817408036115</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.7991622866630517</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.7991622866630517</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.8361170198153358</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.8897427978066507</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.8897427978066507</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.9019915515409712</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.9019915515409712</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.9274972877460873</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.9354595302225773</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.9650175045166898</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9914241514694406</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.9940578503532927</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.9957156035551508</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.01106431202839964</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.1070855302153213</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.2194049406703679</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0.2234098627720121</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0.2950627251047789</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.3406908186000712</v>
       </c>
       <c r="AP6">
+        <v>0.3724149443029927</v>
+      </c>
+      <c r="AQ6">
+        <v>0.3803058044215485</v>
+      </c>
+      <c r="AR6">
+        <v>0.4627644314726912</v>
+      </c>
+      <c r="AS6">
+        <v>0.6671663183576013</v>
+      </c>
+      <c r="AT6">
+        <v>0.6720770665536117</v>
+      </c>
+      <c r="AU6">
+        <v>0.6857372218846939</v>
+      </c>
+      <c r="AV6">
+        <v>0.6863691352586484</v>
+      </c>
+      <c r="AW6">
+        <v>0.7286018608173945</v>
+      </c>
+      <c r="AX6">
+        <v>0.7333153979573857</v>
+      </c>
+      <c r="AY6">
+        <v>0.7381257900920166</v>
+      </c>
+      <c r="AZ6">
+        <v>0.7714822116070004</v>
+      </c>
+      <c r="BA6">
+        <v>0.7715060237266634</v>
+      </c>
+      <c r="BB6">
+        <v>0.8084846414251271</v>
+      </c>
+      <c r="BC6">
+        <v>0.859929738645025</v>
+      </c>
+      <c r="BD6">
+        <v>0.8620398845868722</v>
+      </c>
+      <c r="BE6">
+        <v>0.8775796213538798</v>
+      </c>
+      <c r="BF6">
+        <v>0.879138246183792</v>
+      </c>
+      <c r="BG6">
+        <v>0.9061818729157987</v>
+      </c>
+      <c r="BH6">
+        <v>0.9180019431634875</v>
+      </c>
+      <c r="BI6">
+        <v>0.9485619433379791</v>
+      </c>
+      <c r="BJ6">
+        <v>0.976387345118109</v>
+      </c>
+      <c r="BK6">
+        <v>0.9835835140143065</v>
+      </c>
+      <c r="BL6">
+        <v>0.9899327954862951</v>
+      </c>
+      <c r="BM6">
+        <v>0.9985613750497797</v>
+      </c>
+      <c r="BN6">
+        <v>0.9987755629164904</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:74">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2786,126 +4514,222 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01241669343984975</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01241669343984975</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1059144298421267</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1059144298421267</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2985127988515307</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3338549420836134</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3338549420836134</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3338549420836134</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5264503532841951</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.734583184360869</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.734583184360869</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7394702448760566</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7394702448760566</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7414599854304019</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.7414599854304019</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.7507865289915948</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.7507865289915948</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.7507865289915948</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.7761505626492667</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.7985670111424401</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.7985670111424401</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.7985670111424401</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.7985670111424401</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.8356669283542068</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.8431190984382138</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.9203363114524429</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.02896392225508852</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0.03501575107389564</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0.1105285880856832</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0.1132774140177015</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0.2456842762050382</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0.287809780614813</v>
       </c>
       <c r="AP7">
+        <v>0.2885430868681527</v>
+      </c>
+      <c r="AQ7">
+        <v>0.2933725557577349</v>
+      </c>
+      <c r="AR7">
+        <v>0.4257777198565208</v>
+      </c>
+      <c r="AS7">
+        <v>0.5671029718935738</v>
+      </c>
+      <c r="AT7">
+        <v>0.5889384263419586</v>
+      </c>
+      <c r="AU7">
+        <v>0.6135795595904756</v>
+      </c>
+      <c r="AV7">
+        <v>0.617350110533215</v>
+      </c>
+      <c r="AW7">
+        <v>0.6403278821012141</v>
+      </c>
+      <c r="AX7">
+        <v>0.6407438831921797</v>
+      </c>
+      <c r="AY7">
+        <v>0.6679337394260199</v>
+      </c>
+      <c r="AZ7">
+        <v>0.6882325268684699</v>
+      </c>
+      <c r="BA7">
+        <v>0.6896116179724991</v>
+      </c>
+      <c r="BB7">
+        <v>0.7260086542343311</v>
+      </c>
+      <c r="BC7">
+        <v>0.7607134713836891</v>
+      </c>
+      <c r="BD7">
+        <v>0.7609503416890591</v>
+      </c>
+      <c r="BE7">
+        <v>0.7625802355312684</v>
+      </c>
+      <c r="BF7">
+        <v>0.7708518968439657</v>
+      </c>
+      <c r="BG7">
+        <v>0.8139865455389191</v>
+      </c>
+      <c r="BH7">
+        <v>0.8401003173019148</v>
+      </c>
+      <c r="BI7">
+        <v>0.9062664480097904</v>
+      </c>
+      <c r="BJ7">
+        <v>0.9738371090109924</v>
+      </c>
+      <c r="BK7">
+        <v>0.9836304279537055</v>
+      </c>
+      <c r="BL7">
+        <v>0.9870926680870006</v>
+      </c>
+      <c r="BM7">
+        <v>0.98725131354485</v>
+      </c>
+      <c r="BN7">
+        <v>0.9967274799133157</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BV7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:74">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2917,123 +4741,219 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.135427404464481</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2811482347468754</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3347331581110887</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.4058502405751658</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.436599777636842</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.436599777636842</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4590962430149405</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5719271610764936</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6310143304115836</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.688878784999554</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7072578271493625</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7315190949680909</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.7348612340551068</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.7348612340551068</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.7348612340551068</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.7565397457975177</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.7565397457975177</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.7645021802816161</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.8171565847074425</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.8215254568506253</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.8215254568506253</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.821847749175068</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.8481392322722942</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.9243774910091674</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.9421181539699213</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.9592600267324867</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.9712498775239776</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.9712498775239776</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.9712498775239776</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.9712498775239776</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.9779575668143574</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.005051697330573153</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.1363784434523468</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0.2775023317875202</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0.3309325213477835</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0.4010495806681998</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0.4327453611928884</v>
       </c>
       <c r="AP8">
+        <v>0.4327648520970772</v>
+      </c>
+      <c r="AQ8">
+        <v>0.4566054716275824</v>
+      </c>
+      <c r="AR8">
+        <v>0.5664251903778298</v>
+      </c>
+      <c r="AS8">
+        <v>0.6250923425609717</v>
+      </c>
+      <c r="AT8">
+        <v>0.6825957315348713</v>
+      </c>
+      <c r="AU8">
+        <v>0.7025174438294481</v>
+      </c>
+      <c r="AV8">
+        <v>0.7280377782377073</v>
+      </c>
+      <c r="AW8">
+        <v>0.7336475714140729</v>
+      </c>
+      <c r="AX8">
+        <v>0.7357888971469306</v>
+      </c>
+      <c r="AY8">
+        <v>0.7382176879522999</v>
+      </c>
+      <c r="AZ8">
+        <v>0.7612797903754245</v>
+      </c>
+      <c r="BA8">
+        <v>0.7621140235055072</v>
+      </c>
+      <c r="BB8">
+        <v>0.7721213507850824</v>
+      </c>
+      <c r="BC8">
+        <v>0.824665885119097</v>
+      </c>
+      <c r="BD8">
+        <v>0.8312529088059268</v>
+      </c>
+      <c r="BE8">
+        <v>0.8321726719205585</v>
+      </c>
+      <c r="BF8">
+        <v>0.8349082161618303</v>
+      </c>
+      <c r="BG8">
+        <v>0.8623608817646899</v>
+      </c>
+      <c r="BH8">
+        <v>0.9373522067700211</v>
+      </c>
+      <c r="BI8">
+        <v>0.9566663184647705</v>
+      </c>
+      <c r="BJ8">
+        <v>0.975410509820906</v>
+      </c>
+      <c r="BK8">
+        <v>0.9892510769774738</v>
+      </c>
+      <c r="BL8">
+        <v>0.9902772172410393</v>
+      </c>
+      <c r="BM8">
+        <v>0.9902772179484428</v>
+      </c>
+      <c r="BN8">
+        <v>0.9911869220716027</v>
+      </c>
+      <c r="BO8">
+        <v>1</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+      <c r="BV8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:74">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3045,123 +4965,219 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1926999788944368</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1926999788944368</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3273932731745694</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.3661198395164739</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4470878655100068</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4470878655100068</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4470878655100068</v>
+        <v>0.005612591536444633</v>
       </c>
       <c r="L9">
-        <v>0.5313507145980159</v>
+        <v>0.01130381918979383</v>
       </c>
       <c r="M9">
-        <v>0.6556561626041625</v>
+        <v>0.01273331410180322</v>
       </c>
       <c r="N9">
-        <v>0.7149331768914355</v>
+        <v>0.01354363561314098</v>
       </c>
       <c r="O9">
-        <v>0.7954705619444264</v>
+        <v>0.01481253480849981</v>
       </c>
       <c r="P9">
-        <v>0.7954705619444264</v>
+        <v>0.01509297678190641</v>
       </c>
       <c r="Q9">
-        <v>0.7988329941320518</v>
+        <v>0.01521488152345004</v>
       </c>
       <c r="R9">
-        <v>0.7988329941320518</v>
+        <v>0.01538486892577813</v>
       </c>
       <c r="S9">
-        <v>0.7988329941320518</v>
+        <v>0.01542293908080171</v>
       </c>
       <c r="T9">
-        <v>0.7999524987557923</v>
+        <v>0.01601846803641246</v>
       </c>
       <c r="U9">
-        <v>0.7999524987557923</v>
+        <v>0.01781413631769029</v>
       </c>
       <c r="V9">
-        <v>0.7999524987557923</v>
+        <v>0.01979994192262129</v>
       </c>
       <c r="W9">
-        <v>0.8420493194099798</v>
+        <v>0.02210484085220538</v>
       </c>
       <c r="X9">
-        <v>0.8847205344470189</v>
+        <v>0.02315401495216655</v>
       </c>
       <c r="Y9">
-        <v>0.8847205344470189</v>
+        <v>0.02531293339657612</v>
       </c>
       <c r="Z9">
-        <v>0.8847205344470189</v>
+        <v>0.0266178196802346</v>
       </c>
       <c r="AA9">
-        <v>0.8847205344470189</v>
+        <v>0.02845197147920995</v>
       </c>
       <c r="AB9">
-        <v>0.9452996942213288</v>
+        <v>0.02933858185642065</v>
       </c>
       <c r="AC9">
-        <v>0.9789153519422421</v>
+        <v>0.03065551797897343</v>
       </c>
       <c r="AD9">
-        <v>0.9789153519422421</v>
+        <v>0.03321833942644386</v>
       </c>
       <c r="AE9">
-        <v>0.9886739116913578</v>
+        <v>0.03462295722117371</v>
       </c>
       <c r="AF9">
-        <v>0.9886739116913578</v>
+        <v>0.03629005638091694</v>
       </c>
       <c r="AG9">
-        <v>0.9886739116913578</v>
+        <v>0.03917532698274884</v>
       </c>
       <c r="AH9">
-        <v>0.9886739116913578</v>
+        <v>0.04032698975406983</v>
       </c>
       <c r="AI9">
-        <v>0.9886739116913578</v>
+        <v>0.04060592096263857</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.0408145172951269</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.4329669635922228</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.4331073696585289</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.7159434318553317</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.8179255845088076</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9995137973765185</v>
       </c>
       <c r="AP9">
         <v>1</v>
       </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <v>1</v>
+      </c>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>1</v>
+      </c>
+      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <v>1</v>
+      </c>
+      <c r="BJ9">
+        <v>1</v>
+      </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>1</v>
+      </c>
+      <c r="BM9">
+        <v>1</v>
+      </c>
+      <c r="BN9">
+        <v>1</v>
+      </c>
+      <c r="BO9">
+        <v>1</v>
+      </c>
+      <c r="BP9">
+        <v>1</v>
+      </c>
+      <c r="BQ9">
+        <v>1</v>
+      </c>
+      <c r="BR9">
+        <v>1</v>
+      </c>
+      <c r="BS9">
+        <v>1</v>
+      </c>
+      <c r="BT9">
+        <v>1</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+      <c r="BV9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:74">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3173,123 +5189,219 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1350480015792723</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1350480015792723</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3510495475542198</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.3834762818255546</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5041075599644571</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5041075599644571</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5041075599644571</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5333858801906393</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6082555398881148</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6476249627077695</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7098933065246966</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7098933065246966</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.7098933065246966</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.7157565321232977</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.7157565321232977</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.7157565321232977</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.7246455152210433</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.7246455152210433</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.7521621791382902</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.7943720037864864</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.7943720037864864</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.7943720037864864</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.7943720037864864</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.882424353790215</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.9671784455352461</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.9676288417590422</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.9994372366182041</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.9994372366182041</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.9994372366182041</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.9994372366182041</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.9994372366182041</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.1049674437907778</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0.1063682411327228</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0.2645019784168556</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0.3020728374492604</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0.397572088644333</v>
       </c>
       <c r="AP10">
+        <v>0.4031169064058343</v>
+      </c>
+      <c r="AQ10">
+        <v>0.4041980304828116</v>
+      </c>
+      <c r="AR10">
+        <v>0.4397011665215814</v>
+      </c>
+      <c r="AS10">
+        <v>0.505146444725722</v>
+      </c>
+      <c r="AT10">
+        <v>0.5472769190257277</v>
+      </c>
+      <c r="AU10">
+        <v>0.6044462747423596</v>
+      </c>
+      <c r="AV10">
+        <v>0.6055496362789849</v>
+      </c>
+      <c r="AW10">
+        <v>0.6202655317888094</v>
+      </c>
+      <c r="AX10">
+        <v>0.6403907890399624</v>
+      </c>
+      <c r="AY10">
+        <v>0.641594525284648</v>
+      </c>
+      <c r="AZ10">
+        <v>0.6578691052699686</v>
+      </c>
+      <c r="BA10">
+        <v>0.6799815307475423</v>
+      </c>
+      <c r="BB10">
+        <v>0.6802066728267848</v>
+      </c>
+      <c r="BC10">
+        <v>0.7145528399267088</v>
+      </c>
+      <c r="BD10">
+        <v>0.758548749994631</v>
+      </c>
+      <c r="BE10">
+        <v>0.7589232151094094</v>
+      </c>
+      <c r="BF10">
+        <v>0.7607572590751428</v>
+      </c>
+      <c r="BG10">
+        <v>0.774673360474455</v>
+      </c>
+      <c r="BH10">
+        <v>0.8487763792023286</v>
+      </c>
+      <c r="BI10">
+        <v>0.9207132646508277</v>
+      </c>
+      <c r="BJ10">
+        <v>0.9372836426521759</v>
+      </c>
+      <c r="BK10">
+        <v>0.9744484068691961</v>
+      </c>
+      <c r="BL10">
+        <v>0.9799450896979334</v>
+      </c>
+      <c r="BM10">
+        <v>0.9799905122278491</v>
+      </c>
+      <c r="BN10">
+        <v>0.9802127094952449</v>
+      </c>
+      <c r="BO10">
+        <v>0.9833558247937754</v>
+      </c>
+      <c r="BP10">
+        <v>1</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <v>1</v>
+      </c>
+      <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>1</v>
+      </c>
+      <c r="BV10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:74">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3298,121 +5410,217 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1289576598712225</v>
       </c>
       <c r="E11">
-        <v>0.1427644271767594</v>
+        <v>0.2661298684936838</v>
       </c>
       <c r="F11">
-        <v>0.1535112055633822</v>
+        <v>0.3769871226121597</v>
       </c>
       <c r="G11">
-        <v>0.299324139829738</v>
+        <v>0.4642693920436755</v>
       </c>
       <c r="H11">
-        <v>0.3163258980812375</v>
+        <v>0.5025905323285511</v>
       </c>
       <c r="I11">
-        <v>0.4443202714455166</v>
+        <v>0.5114844925446699</v>
       </c>
       <c r="J11">
-        <v>0.4443202714455166</v>
+        <v>0.5114844925446699</v>
       </c>
       <c r="K11">
-        <v>0.4443202714455166</v>
+        <v>0.5114844925446699</v>
       </c>
       <c r="L11">
-        <v>0.51321518910825</v>
+        <v>0.5166738591315816</v>
       </c>
       <c r="M11">
-        <v>0.658935944626266</v>
+        <v>0.5192054488042053</v>
       </c>
       <c r="N11">
-        <v>0.691040765934739</v>
+        <v>0.5192054488042053</v>
       </c>
       <c r="O11">
-        <v>0.7531180110167447</v>
+        <v>0.5192054488042053</v>
       </c>
       <c r="P11">
-        <v>0.7531180110167447</v>
+        <v>0.5192054488042053</v>
       </c>
       <c r="Q11">
-        <v>0.7718771705866525</v>
+        <v>0.5296823807526675</v>
       </c>
       <c r="R11">
-        <v>0.7718771705866525</v>
+        <v>0.5475247395320573</v>
       </c>
       <c r="S11">
-        <v>0.7718771705866525</v>
+        <v>0.6027882753364349</v>
       </c>
       <c r="T11">
-        <v>0.7728999736895873</v>
+        <v>0.6856999920584042</v>
       </c>
       <c r="U11">
-        <v>0.7728999736895873</v>
+        <v>0.75010116545968</v>
       </c>
       <c r="V11">
-        <v>0.7728999736895873</v>
+        <v>0.7845379008135349</v>
       </c>
       <c r="W11">
-        <v>0.8161279386155007</v>
+        <v>0.830198106109989</v>
       </c>
       <c r="X11">
-        <v>0.8379603152867559</v>
+        <v>0.8476904865920399</v>
       </c>
       <c r="Y11">
-        <v>0.8379603152867559</v>
+        <v>0.8476904865920399</v>
       </c>
       <c r="Z11">
-        <v>0.8379603152867559</v>
+        <v>0.86147431511293</v>
       </c>
       <c r="AA11">
-        <v>0.8490271121324805</v>
+        <v>0.8911344318994966</v>
       </c>
       <c r="AB11">
-        <v>0.8931423143337975</v>
+        <v>0.9083741698632269</v>
       </c>
       <c r="AC11">
-        <v>0.9350229371660951</v>
+        <v>0.9124754638112865</v>
       </c>
       <c r="AD11">
-        <v>0.9472787823203958</v>
+        <v>0.9195913938199839</v>
       </c>
       <c r="AE11">
-        <v>0.9854391389955628</v>
+        <v>0.9195913938199839</v>
       </c>
       <c r="AF11">
-        <v>0.986808874914387</v>
+        <v>0.9273163053843838</v>
       </c>
       <c r="AG11">
-        <v>0.986808874914387</v>
+        <v>0.9344357702077326</v>
       </c>
       <c r="AH11">
-        <v>0.986808874914387</v>
+        <v>0.9449423998278759</v>
       </c>
       <c r="AI11">
-        <v>0.986808874914387</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11">
+        <v>1</v>
+      </c>
+      <c r="BK11">
+        <v>1</v>
+      </c>
+      <c r="BL11">
+        <v>1</v>
+      </c>
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11">
+        <v>1</v>
+      </c>
+      <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BP11">
+        <v>1</v>
+      </c>
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BV11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3430,66 +5638,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5145232918060307</v>
+        <v>0.5041024812436395</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -3498,36 +5706,36 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6294976516452451</v>
+        <v>0.5902039045446512</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -3539,36 +5747,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6027289162082684</v>
+        <v>0.574641058249264</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -3580,30 +5788,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3621,36 +5829,36 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7132894790946599</v>
+        <v>0.6671663183576013</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3662,39 +5870,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E7">
-        <v>0.01241669343984975</v>
+        <v>0.02896392225508852</v>
       </c>
       <c r="F7">
-        <v>0.5264503532841951</v>
+        <v>0.5671029718935738</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -3703,36 +5911,36 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5719271610764936</v>
+        <v>0.5664251903778298</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -3744,39 +5952,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04060592096263857</v>
       </c>
       <c r="F9">
-        <v>0.5313507145980159</v>
+        <v>0.7159434318553317</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -3785,39 +5993,39 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5041075599644571</v>
+        <v>0.505146444725722</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -3826,39 +6034,39 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.51321518910825</v>
+        <v>0.5025905323285511</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -3867,16 +6075,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3894,63 +6102,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7779694025793593</v>
+        <v>0.7262362234642257</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -3962,39 +6170,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7010048333703571</v>
+        <v>0.7201137440315263</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -4003,39 +6211,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D4">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7051731906464782</v>
+      </c>
+      <c r="G4">
         <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7204399327855525</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -4044,30 +6252,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4085,39 +6293,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7132894790946599</v>
+        <v>0.7286018608173945</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -4126,39 +6334,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E7">
-        <v>0.01241669343984975</v>
+        <v>0.02896392225508852</v>
       </c>
       <c r="F7">
-        <v>0.734583184360869</v>
+        <v>0.7260086542343311</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -4167,36 +6375,36 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7072578271493625</v>
+        <v>0.7025174438294481</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -4208,39 +6416,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04060592096263857</v>
       </c>
       <c r="F9">
-        <v>0.7149331768914355</v>
+        <v>0.7159434318553317</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -4249,39 +6457,39 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7098933065246966</v>
+        <v>0.7145528399267088</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -4290,39 +6498,39 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7531180110167447</v>
+        <v>0.75010116545968</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -4331,16 +6539,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4358,66 +6566,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D2">
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8335423590513504</v>
+      </c>
+      <c r="G2">
         <v>20</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8089714839755127</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -4426,36 +6634,36 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8456578234209884</v>
+        <v>0.819756615475115</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -4467,39 +6675,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8249737611500497</v>
+        <v>0.8392592109101438</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -4508,30 +6716,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4549,36 +6757,36 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8361170198153358</v>
+        <v>0.8084846414251271</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -4590,36 +6798,36 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E7">
-        <v>0.01241669343984975</v>
+        <v>0.02896392225508852</v>
       </c>
       <c r="F7">
-        <v>0.8356669283542068</v>
+        <v>0.8139865455389191</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -4631,36 +6839,36 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8171565847074425</v>
+        <v>0.824665885119097</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -4672,39 +6880,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04060592096263857</v>
       </c>
       <c r="F9">
-        <v>0.8420493194099798</v>
+        <v>0.8179255845088076</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -4713,36 +6921,36 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.882424353790215</v>
+        <v>0.8487763792023286</v>
       </c>
       <c r="G10">
         <v>25</v>
@@ -4754,27 +6962,27 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -4783,10 +6991,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8161279386155007</v>
+        <v>0.830198106109989</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -4795,16 +7003,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4822,63 +7030,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9423975293992809</v>
+        <v>0.9282199850850055</v>
       </c>
       <c r="G2">
         <v>25</v>
@@ -4890,36 +7098,36 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9361966899111983</v>
+        <v>0.9255466208712263</v>
       </c>
       <c r="G3">
         <v>26</v>
@@ -4931,39 +7139,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9071803120605785</v>
+        <v>0.9199233217745497</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -4972,30 +7180,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5013,39 +7221,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D6">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9061818729157987</v>
+      </c>
+      <c r="G6">
         <v>24</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9019915515409712</v>
-      </c>
-      <c r="G6">
-        <v>22</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -5054,36 +7262,36 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>0.01241669343984975</v>
+        <v>0.02896392225508852</v>
       </c>
       <c r="F7">
-        <v>0.9203363114524429</v>
+        <v>0.9062664480097904</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -5095,36 +7303,36 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9243774910091674</v>
+        <v>0.9373522067700211</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -5136,39 +7344,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04060592096263857</v>
       </c>
       <c r="F9">
-        <v>0.9452996942213288</v>
+        <v>0.9995137973765185</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -5177,36 +7385,36 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9671784455352461</v>
+        <v>0.9207132646508277</v>
       </c>
       <c r="G10">
         <v>26</v>
@@ -5218,36 +7426,36 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9350229371660951</v>
+        <v>0.9083741698632269</v>
       </c>
       <c r="G11">
         <v>26</v>
@@ -5259,16 +7467,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/3_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/3_225-80R17.xlsx
@@ -177,40 +177,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -220,9 +223,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -728,37 +728,37 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2186189395927225</v>
+        <v>0.3003404938673945</v>
       </c>
       <c r="F2">
-        <v>0.120116085460771</v>
+        <v>0.144685735052369</v>
       </c>
       <c r="G2">
-        <v>0.09249720204156939</v>
+        <v>0.1010422216207955</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08329106471096781</v>
+        <v>0.08649463212767058</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01989428807811529</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1606852488909045</v>
+        <v>0.2087933530974835</v>
       </c>
       <c r="N2">
-        <v>0.08286657380430876</v>
+        <v>0.08582384923231737</v>
       </c>
       <c r="O2">
-        <v>0.0003779875403801499</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -767,25 +767,25 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01658504085441384</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0005814751249050582</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01345757787645441</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.04775268350101491</v>
+        <v>0.03033668417114199</v>
       </c>
       <c r="X2">
-        <v>0.02275026264767151</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -794,34 +794,34 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.007483854679735284</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05543924459534641</v>
+        <v>0.04248303083082761</v>
       </c>
       <c r="AC2">
-        <v>0.01136047729784652</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0009832627510761543</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.02493366206260359</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.003533989186074265</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.003385986764646371</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.01340509253847257</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1236835037893844</v>
+        <v>0.1517335954261282</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02681841526212456</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.005114566038741051</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1256821595572906</v>
+        <v>0.154930725510647</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -880,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3481990069977045</v>
+        <v>0.5108776167601093</v>
       </c>
       <c r="N3">
-        <v>0.035764405202694</v>
+        <v>0.01109467220137062</v>
       </c>
       <c r="O3">
-        <v>0.00429094828722678</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.03145182823519132</v>
+        <v>0.004196100778513877</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -901,46 +901,46 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.04731736251113083</v>
+        <v>0.02957524698021757</v>
       </c>
       <c r="U3">
-        <v>0.01114817079968709</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001149644768235752</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0850378119715775</v>
+        <v>0.08991439377481628</v>
       </c>
       <c r="X3">
-        <v>0.01456236072808816</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001149644768235752</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01321062553349315</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02057606379628018</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.04104017166411263</v>
+        <v>0.01953400024552245</v>
       </c>
       <c r="AD3">
-        <v>0.04642241209041445</v>
+        <v>0.02814364832267458</v>
       </c>
       <c r="AE3">
-        <v>0.0155304078026164</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.001850490195770569</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -984,46 +984,46 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1818975903997836</v>
+        <v>0.2735162662892223</v>
       </c>
       <c r="F4">
-        <v>0.006300044857875491</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1941600700420932</v>
+        <v>0.2954719950290073</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06510099033143289</v>
+        <v>0.06439424989198521</v>
       </c>
       <c r="J4">
-        <v>0.004237964546944108</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02985898995798298</v>
+        <v>0.001294141021906029</v>
       </c>
       <c r="L4">
-        <v>0.007690904426925751</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1134823616452304</v>
+        <v>0.151020144132775</v>
       </c>
       <c r="N4">
-        <v>0.1177110165772841</v>
+        <v>0.158591467660358</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0187839508575596</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02013404557920459</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1032,52 +1032,52 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.03637902700808532</v>
+        <v>0.01296813918712802</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0292368049196477</v>
+        <v>0.0001801309418803891</v>
       </c>
       <c r="X4">
-        <v>0.0402617360626054</v>
+        <v>0.01992005342170233</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001774124784726753</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.003258558421570599</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03850884394788002</v>
+        <v>0.01678153454920374</v>
       </c>
       <c r="AC4">
-        <v>0.03079073980894867</v>
+        <v>0.002962420813421724</v>
       </c>
       <c r="AD4">
-        <v>0.002025245427321486</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.03075557396515459</v>
+        <v>0.002899457061409889</v>
       </c>
       <c r="AF4">
-        <v>0.004432508987950968</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.007250217869333705</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.009658156643574424</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.007907245237137544</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1130,100 +1130,100 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.03070646743272046</v>
+        <v>0.00124145625195416</v>
       </c>
       <c r="L5">
-        <v>0.06238350719883395</v>
+        <v>0.05690666775308109</v>
       </c>
       <c r="M5">
-        <v>0.1649282404894097</v>
+        <v>0.2371057743960217</v>
       </c>
       <c r="N5">
-        <v>3.185704072546546E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.03116400640146025</v>
+        <v>0.002045477197502039</v>
       </c>
       <c r="P5">
-        <v>0.06082650935516102</v>
+        <v>0.05417059724539534</v>
       </c>
       <c r="Q5">
-        <v>0.02417586505841957</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001465301131271513</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1965689051610046</v>
+        <v>0.2927070649201664</v>
       </c>
       <c r="T5">
-        <v>0.1924799718354576</v>
+        <v>0.2855216921687622</v>
       </c>
       <c r="U5">
-        <v>0.001027489305108641</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001490832295081531</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.004398035056523772</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.02236784861548421</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.007992221976240121</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.002644013765741288</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.04393515315301869</v>
+        <v>0.02448787049834087</v>
       </c>
       <c r="AB5">
-        <v>0.0006100979346392748</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.04378187226108036</v>
+        <v>0.02421851410229416</v>
       </c>
       <c r="AD5">
-        <v>0.04228886098191814</v>
+        <v>0.02159488546648209</v>
       </c>
       <c r="AE5">
-        <v>1.889650320722958E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001956997693053878</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.004377228693211937</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.00458751753128541</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.008911494641491198</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.008358946097516202</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0137030138714294</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.00340512362426599</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.004371177793816167</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.01591714635929743</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>9.312182668336009E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0003680567864724976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -1240,43 +1240,43 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1043938982045332</v>
+        <v>0.1378949500499274</v>
       </c>
       <c r="F6">
-        <v>0.1230682813432249</v>
+        <v>0.171936103340286</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07647276399565198</v>
+        <v>0.08699808226124456</v>
       </c>
       <c r="I6">
-        <v>0.04665372048630737</v>
+        <v>0.03264155420167373</v>
       </c>
       <c r="J6">
-        <v>0.03072262718275333</v>
+        <v>0.00360108816851932</v>
       </c>
       <c r="K6">
-        <v>0.003414596595883637</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08885395248194554</v>
+        <v>0.1095674989883488</v>
       </c>
       <c r="M6">
-        <v>0.2285758994226775</v>
+        <v>0.3642637948987701</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01002502476279427</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.04276332572958951</v>
+        <v>0.02554983270865964</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1285,46 +1285,46 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.03259290315500014</v>
+        <v>0.007010376207309587</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.03674319652625338</v>
+        <v>0.01457586159986689</v>
       </c>
       <c r="W6">
-        <v>0.05331881281589848</v>
+        <v>0.04479121547835137</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.01217863930466521</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02535973603352702</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.007916664934306815</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02938877826369561</v>
+        <v>0.001169642097042611</v>
       </c>
       <c r="AD6">
-        <v>0.02625548977951002</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.002618623040290297</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001648263875614758</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.004259871663009197</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.01277493040286772</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -1365,22 +1365,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01241669343984975</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09349773640227689</v>
+        <v>0.09647682422484884</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.192598369009404</v>
+        <v>0.217079169116774</v>
       </c>
       <c r="I7">
-        <v>0.03534214323208273</v>
+        <v>0.0257033011867948</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1389,28 +1389,28 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1925954112005817</v>
+        <v>0.2170755695567073</v>
       </c>
       <c r="M7">
-        <v>0.208132831076674</v>
+        <v>0.2359841195965016</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.004887060515187669</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.001989740554345314</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.009326543561192937</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.02536403365767195</v>
+        <v>0.01356025647957096</v>
       </c>
       <c r="W7">
-        <v>0.02241644849317338</v>
+        <v>0.009973138282087202</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.03709991721176661</v>
+        <v>0.02784245669128389</v>
       </c>
       <c r="AB7">
-        <v>0.007452170084007016</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.07721721301422914</v>
+        <v>0.07666394064366797</v>
       </c>
       <c r="AD7">
-        <v>0.07966368854755708</v>
+        <v>0.07964122422176344</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1496,43 +1496,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.135427404464481</v>
+        <v>0.2118422155579748</v>
       </c>
       <c r="F8">
-        <v>0.1457208302823944</v>
+        <v>0.2324368753294087</v>
       </c>
       <c r="G8">
-        <v>0.0535849233642132</v>
+        <v>0.04809517128659525</v>
       </c>
       <c r="H8">
-        <v>0.07111708246407718</v>
+        <v>0.08317278860346446</v>
       </c>
       <c r="I8">
-        <v>0.03074953706167622</v>
+        <v>0.002407076771785364</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02249646537809847</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.112830918061553</v>
+        <v>0.1666321020612351</v>
       </c>
       <c r="M8">
-        <v>0.05908716933509007</v>
+        <v>0.05910383698774108</v>
       </c>
       <c r="N8">
-        <v>0.05786445458797041</v>
+        <v>0.05665747999640573</v>
       </c>
       <c r="O8">
-        <v>0.01837904214980849</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.02426126781872839</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.003342139087015992</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1541,40 +1541,40 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.0216785117424109</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.007962434484098382</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0526544044258264</v>
+        <v>0.04623342755948721</v>
       </c>
       <c r="X8">
-        <v>0.004368872143182823</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.0003222923244427126</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.02629148309722613</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.07623825873687332</v>
+        <v>0.09341902584590241</v>
       </c>
       <c r="AC8">
-        <v>0.01774066296075384</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.01714187276256542</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.01198985079149095</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1586,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.006707689290379792</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.02204243318564265</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1624,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1926999788944368</v>
+        <v>0.2461230654376351</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1346932942801326</v>
+        <v>0.161431314152871</v>
       </c>
       <c r="H9">
-        <v>0.03872656634190449</v>
+        <v>0.02131659619926476</v>
       </c>
       <c r="I9">
-        <v>0.08096802599353294</v>
+        <v>0.08299057771550733</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1645,22 +1645,22 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08426284908800903</v>
+        <v>0.08780113256621248</v>
       </c>
       <c r="M9">
-        <v>0.1243054480061466</v>
+        <v>0.1462647019103255</v>
       </c>
       <c r="N9">
-        <v>0.05927701428727308</v>
+        <v>0.05132095583043831</v>
       </c>
       <c r="O9">
-        <v>0.08053738505299093</v>
+        <v>0.08236182715560329</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.003362432187625353</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.001119504623740579</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1678,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.04209682065418746</v>
+        <v>0.02623728321801374</v>
       </c>
       <c r="X9">
-        <v>0.04267121503703906</v>
+        <v>0.0270759187396832</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1693,16 +1693,16 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.0605791597743098</v>
+        <v>0.05322213295266084</v>
       </c>
       <c r="AC9">
-        <v>0.03361565772091336</v>
+        <v>0.01385449412178457</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.009758559749115612</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.01132608830864247</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1752,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1350480015792723</v>
+        <v>0.1601983878215477</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2160015459749475</v>
+        <v>0.273809764619358</v>
       </c>
       <c r="H10">
-        <v>0.03242673427133479</v>
+        <v>0.01617821483683357</v>
       </c>
       <c r="I10">
-        <v>0.1206312781389025</v>
+        <v>0.1399657493225079</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0292783202261821</v>
+        <v>0.01175968496183444</v>
       </c>
       <c r="M10">
-        <v>0.07486965969747553</v>
+        <v>0.07574323115560318</v>
       </c>
       <c r="N10">
-        <v>0.03936942281965473</v>
+        <v>0.02592168450874528</v>
       </c>
       <c r="O10">
-        <v>0.06226834381692711</v>
+        <v>0.05805836192176517</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.005863225598601118</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1800,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.008888983097745535</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.02751666391724689</v>
+        <v>0.009287350980700312</v>
       </c>
       <c r="X10">
-        <v>0.04220982464819623</v>
+        <v>0.02990794557746825</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.08805235000372862</v>
+        <v>0.09424400967954601</v>
       </c>
       <c r="AC10">
-        <v>0.08475409174503107</v>
+        <v>0.08961518626480006</v>
       </c>
       <c r="AD10">
-        <v>0.0004503962237960963</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.03180839485916188</v>
+        <v>0.01531042834929016</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.0005627633817960949</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1427644271767594</v>
+        <v>0.1972450787206026</v>
       </c>
       <c r="F11">
-        <v>0.01074677838662283</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1458129342663558</v>
+        <v>0.2025070862758855</v>
       </c>
       <c r="H11">
-        <v>0.01700175825149948</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1279943733642791</v>
+        <v>0.1717505883130058</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1901,22 +1901,22 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06889491766273338</v>
+        <v>0.06973941586865642</v>
       </c>
       <c r="M11">
-        <v>0.145720755518016</v>
+        <v>0.2023479771592114</v>
       </c>
       <c r="N11">
-        <v>0.03210482130847291</v>
+        <v>0.006236278337382407</v>
       </c>
       <c r="O11">
-        <v>0.06207724508200575</v>
+        <v>0.05797147714492418</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.01875915956990776</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.001022803102934828</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0432279649259134</v>
+        <v>0.0254358616197088</v>
       </c>
       <c r="X11">
-        <v>0.02183237667125517</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1946,22 +1946,22 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.01106679684572463</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04411520220131706</v>
+        <v>0.02696731590513109</v>
       </c>
       <c r="AC11">
-        <v>0.04188062283229756</v>
+        <v>0.02311022350643288</v>
       </c>
       <c r="AD11">
-        <v>0.01225584515430066</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.03816035667516705</v>
+        <v>0.01668869714905916</v>
       </c>
       <c r="AF11">
-        <v>0.001369735918824199</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.01319112508561293</v>
+        <v>0</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -2149,118 +2149,118 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2186189395927225</v>
+        <v>0.3003404938673945</v>
       </c>
       <c r="F2">
-        <v>0.3387350250534935</v>
+        <v>0.4450262289197634</v>
       </c>
       <c r="G2">
-        <v>0.4312322270950629</v>
+        <v>0.5460684505405589</v>
       </c>
       <c r="H2">
-        <v>0.4312322270950629</v>
+        <v>0.5460684505405589</v>
       </c>
       <c r="I2">
-        <v>0.5145232918060307</v>
+        <v>0.6325630826682295</v>
       </c>
       <c r="J2">
-        <v>0.5145232918060307</v>
+        <v>0.6325630826682295</v>
       </c>
       <c r="K2">
-        <v>0.5344175798841461</v>
+        <v>0.6325630826682295</v>
       </c>
       <c r="L2">
-        <v>0.5344175798841461</v>
+        <v>0.6325630826682295</v>
       </c>
       <c r="M2">
-        <v>0.6951028287750506</v>
+        <v>0.841356435765713</v>
       </c>
       <c r="N2">
-        <v>0.7779694025793593</v>
+        <v>0.9271802849980303</v>
       </c>
       <c r="O2">
-        <v>0.7783473901197394</v>
+        <v>0.9271802849980303</v>
       </c>
       <c r="P2">
-        <v>0.7783473901197394</v>
+        <v>0.9271802849980303</v>
       </c>
       <c r="Q2">
-        <v>0.7783473901197394</v>
+        <v>0.9271802849980303</v>
       </c>
       <c r="R2">
-        <v>0.7949324309741532</v>
+        <v>0.9271802849980303</v>
       </c>
       <c r="S2">
-        <v>0.7949324309741532</v>
+        <v>0.9271802849980303</v>
       </c>
       <c r="T2">
-        <v>0.7955139060990583</v>
+        <v>0.9271802849980303</v>
       </c>
       <c r="U2">
-        <v>0.8089714839755127</v>
+        <v>0.9271802849980303</v>
       </c>
       <c r="V2">
-        <v>0.8089714839755127</v>
+        <v>0.9271802849980303</v>
       </c>
       <c r="W2">
-        <v>0.8567241674765276</v>
+        <v>0.9575169691691723</v>
       </c>
       <c r="X2">
-        <v>0.8794744301241991</v>
+        <v>0.9575169691691723</v>
       </c>
       <c r="Y2">
-        <v>0.8794744301241991</v>
+        <v>0.9575169691691723</v>
       </c>
       <c r="Z2">
-        <v>0.8794744301241991</v>
+        <v>0.9575169691691723</v>
       </c>
       <c r="AA2">
-        <v>0.8869582848039345</v>
+        <v>0.9575169691691723</v>
       </c>
       <c r="AB2">
-        <v>0.9423975293992809</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.9537580066971274</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD2">
-        <v>0.9547412694482036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE2">
-        <v>0.9796749315108072</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.9796749315108072</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>0.9832089206968815</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.9832089206968815</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.9865949074615279</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2277,118 +2277,118 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1236835037893844</v>
+        <v>0.1517335954261282</v>
       </c>
       <c r="F3">
-        <v>0.1236835037893844</v>
+        <v>0.1517335954261282</v>
       </c>
       <c r="G3">
-        <v>0.150501919051509</v>
+        <v>0.1517335954261282</v>
       </c>
       <c r="H3">
-        <v>0.1556164850902501</v>
+        <v>0.1517335954261282</v>
       </c>
       <c r="I3">
-        <v>0.2812986446475407</v>
+        <v>0.3066643209367752</v>
       </c>
       <c r="J3">
-        <v>0.2812986446475407</v>
+        <v>0.3066643209367752</v>
       </c>
       <c r="K3">
-        <v>0.2812986446475407</v>
+        <v>0.3066643209367752</v>
       </c>
       <c r="L3">
-        <v>0.2812986446475407</v>
+        <v>0.3066643209367752</v>
       </c>
       <c r="M3">
-        <v>0.6294976516452451</v>
+        <v>0.8175419376968845</v>
       </c>
       <c r="N3">
-        <v>0.665262056847939</v>
+        <v>0.8286366098982552</v>
       </c>
       <c r="O3">
-        <v>0.6695530051351658</v>
+        <v>0.8286366098982552</v>
       </c>
       <c r="P3">
-        <v>0.6695530051351658</v>
+        <v>0.8286366098982552</v>
       </c>
       <c r="Q3">
-        <v>0.7010048333703571</v>
+        <v>0.832832710676769</v>
       </c>
       <c r="R3">
-        <v>0.7010048333703571</v>
+        <v>0.832832710676769</v>
       </c>
       <c r="S3">
-        <v>0.7010048333703571</v>
+        <v>0.832832710676769</v>
       </c>
       <c r="T3">
-        <v>0.748322195881488</v>
+        <v>0.8624079576569865</v>
       </c>
       <c r="U3">
-        <v>0.7594703666811751</v>
+        <v>0.8624079576569865</v>
       </c>
       <c r="V3">
-        <v>0.7606200114494108</v>
+        <v>0.8624079576569865</v>
       </c>
       <c r="W3">
-        <v>0.8456578234209884</v>
+        <v>0.9523223514318028</v>
       </c>
       <c r="X3">
-        <v>0.8602201841490765</v>
+        <v>0.9523223514318028</v>
       </c>
       <c r="Y3">
-        <v>0.8602201841490765</v>
+        <v>0.9523223514318028</v>
       </c>
       <c r="Z3">
-        <v>0.8613698289173123</v>
+        <v>0.9523223514318028</v>
       </c>
       <c r="AA3">
-        <v>0.8745804544508055</v>
+        <v>0.9523223514318028</v>
       </c>
       <c r="AB3">
-        <v>0.8951565182470856</v>
+        <v>0.9523223514318028</v>
       </c>
       <c r="AC3">
-        <v>0.9361966899111983</v>
+        <v>0.9718563516773252</v>
       </c>
       <c r="AD3">
-        <v>0.9826191020016127</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE3">
-        <v>0.9981495098042291</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF3">
-        <v>0.9981495098042291</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -2405,97 +2405,97 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1818975903997836</v>
+        <v>0.2735162662892223</v>
       </c>
       <c r="F4">
-        <v>0.1881976352576591</v>
+        <v>0.2735162662892223</v>
       </c>
       <c r="G4">
-        <v>0.3823577052997523</v>
+        <v>0.5689882613182295</v>
       </c>
       <c r="H4">
-        <v>0.3823577052997523</v>
+        <v>0.5689882613182295</v>
       </c>
       <c r="I4">
-        <v>0.4474586956311852</v>
+        <v>0.6333825112102147</v>
       </c>
       <c r="J4">
-        <v>0.4516966601781293</v>
+        <v>0.6333825112102147</v>
       </c>
       <c r="K4">
-        <v>0.4815556501361123</v>
+        <v>0.6346766522321208</v>
       </c>
       <c r="L4">
-        <v>0.4892465545630381</v>
+        <v>0.6346766522321208</v>
       </c>
       <c r="M4">
-        <v>0.6027289162082684</v>
+        <v>0.7856967963648958</v>
       </c>
       <c r="N4">
-        <v>0.7204399327855525</v>
+        <v>0.9442882640252538</v>
       </c>
       <c r="O4">
-        <v>0.7204399327855525</v>
+        <v>0.9442882640252538</v>
       </c>
       <c r="P4">
-        <v>0.7392238836431121</v>
+        <v>0.9442882640252538</v>
       </c>
       <c r="Q4">
-        <v>0.7392238836431121</v>
+        <v>0.9442882640252538</v>
       </c>
       <c r="R4">
-        <v>0.7593579292223167</v>
+        <v>0.9442882640252538</v>
       </c>
       <c r="S4">
-        <v>0.7593579292223167</v>
+        <v>0.9442882640252538</v>
       </c>
       <c r="T4">
-        <v>0.7593579292223167</v>
+        <v>0.9442882640252538</v>
       </c>
       <c r="U4">
-        <v>0.795736956230402</v>
+        <v>0.9572564032123818</v>
       </c>
       <c r="V4">
-        <v>0.795736956230402</v>
+        <v>0.9572564032123818</v>
       </c>
       <c r="W4">
-        <v>0.8249737611500497</v>
+        <v>0.9574365341542622</v>
       </c>
       <c r="X4">
-        <v>0.8652354972126551</v>
+        <v>0.9773565875759646</v>
       </c>
       <c r="Y4">
-        <v>0.8652354972126551</v>
+        <v>0.9773565875759646</v>
       </c>
       <c r="Z4">
-        <v>0.8654129096911278</v>
+        <v>0.9773565875759646</v>
       </c>
       <c r="AA4">
-        <v>0.8686714681126985</v>
+        <v>0.9773565875759646</v>
       </c>
       <c r="AB4">
-        <v>0.9071803120605785</v>
+        <v>0.9941381221251683</v>
       </c>
       <c r="AC4">
-        <v>0.9379710518695271</v>
+        <v>0.99710054293859</v>
       </c>
       <c r="AD4">
-        <v>0.9399962972968486</v>
+        <v>0.99710054293859</v>
       </c>
       <c r="AE4">
-        <v>0.9707518712620032</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.9751843802499542</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.9824345981192879</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.9920927547628623</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.9920927547628623</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
         <v>0.9999999999999999</v>
@@ -2551,97 +2551,97 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.03070646743272046</v>
+        <v>0.00124145625195416</v>
       </c>
       <c r="L5">
-        <v>0.09308997463155441</v>
+        <v>0.05814812400503525</v>
       </c>
       <c r="M5">
-        <v>0.2580182151209641</v>
+        <v>0.2952538984010569</v>
       </c>
       <c r="N5">
-        <v>0.2580500721616896</v>
+        <v>0.2952538984010569</v>
       </c>
       <c r="O5">
-        <v>0.2892140785631498</v>
+        <v>0.297299375598559</v>
       </c>
       <c r="P5">
-        <v>0.3500405879183109</v>
+        <v>0.3514699728439543</v>
       </c>
       <c r="Q5">
-        <v>0.3742164529767305</v>
+        <v>0.3514699728439543</v>
       </c>
       <c r="R5">
-        <v>0.3743629830898576</v>
+        <v>0.3514699728439543</v>
       </c>
       <c r="S5">
-        <v>0.5709318882508623</v>
+        <v>0.6441770377641207</v>
       </c>
       <c r="T5">
-        <v>0.7634118600863199</v>
+        <v>0.9296987299328829</v>
       </c>
       <c r="U5">
-        <v>0.7644393493914285</v>
+        <v>0.9296987299328829</v>
       </c>
       <c r="V5">
-        <v>0.7659301816865101</v>
+        <v>0.9296987299328829</v>
       </c>
       <c r="W5">
-        <v>0.7703282167430339</v>
+        <v>0.9296987299328829</v>
       </c>
       <c r="X5">
-        <v>0.7926960653585181</v>
+        <v>0.9296987299328829</v>
       </c>
       <c r="Y5">
-        <v>0.8006882873347583</v>
+        <v>0.9296987299328829</v>
       </c>
       <c r="Z5">
-        <v>0.8033323011004996</v>
+        <v>0.9296987299328829</v>
       </c>
       <c r="AA5">
-        <v>0.8472674542535182</v>
+        <v>0.9541866004312238</v>
       </c>
       <c r="AB5">
-        <v>0.8478775521881575</v>
+        <v>0.9541866004312238</v>
       </c>
       <c r="AC5">
-        <v>0.8916594244492378</v>
+        <v>0.978405114533518</v>
       </c>
       <c r="AD5">
-        <v>0.933948285431156</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9339501750814768</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9359071727745307</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9402844014677426</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.944871918999028</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9537834136405192</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9621423597380354</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9758453736094648</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9792504972337308</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.9836216750275469</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.9995388213868444</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.9996319432135277</v>
+        <v>1</v>
       </c>
       <c r="AP5">
         <v>1</v>
@@ -2661,118 +2661,118 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1043938982045332</v>
+        <v>0.1378949500499274</v>
       </c>
       <c r="F6">
-        <v>0.2274621795477581</v>
+        <v>0.3098310533902134</v>
       </c>
       <c r="G6">
-        <v>0.2274621795477581</v>
+        <v>0.3098310533902134</v>
       </c>
       <c r="H6">
-        <v>0.3039349435434101</v>
+        <v>0.396829135651458</v>
       </c>
       <c r="I6">
-        <v>0.3505886640297174</v>
+        <v>0.4294706898531317</v>
       </c>
       <c r="J6">
-        <v>0.3813112912124708</v>
+        <v>0.4330717780216511</v>
       </c>
       <c r="K6">
-        <v>0.3847258878083544</v>
+        <v>0.4330717780216511</v>
       </c>
       <c r="L6">
-        <v>0.4735798402902999</v>
+        <v>0.5426392770099999</v>
       </c>
       <c r="M6">
-        <v>0.7021557397129774</v>
+        <v>0.9069030719087701</v>
       </c>
       <c r="N6">
-        <v>0.7021557397129774</v>
+        <v>0.9069030719087701</v>
       </c>
       <c r="O6">
-        <v>0.7121807644757717</v>
+        <v>0.9069030719087701</v>
       </c>
       <c r="P6">
-        <v>0.7121807644757717</v>
+        <v>0.9069030719087701</v>
       </c>
       <c r="Q6">
-        <v>0.7549440902053612</v>
+        <v>0.9324529046174297</v>
       </c>
       <c r="R6">
-        <v>0.7549440902053612</v>
+        <v>0.9324529046174297</v>
       </c>
       <c r="S6">
-        <v>0.7549440902053612</v>
+        <v>0.9324529046174297</v>
       </c>
       <c r="T6">
-        <v>0.7875369933603614</v>
+        <v>0.9394632808247393</v>
       </c>
       <c r="U6">
-        <v>0.7875369933603614</v>
+        <v>0.9394632808247393</v>
       </c>
       <c r="V6">
-        <v>0.8242801898866148</v>
+        <v>0.9540391424246062</v>
       </c>
       <c r="W6">
-        <v>0.8775990027025132</v>
+        <v>0.9988303579029576</v>
       </c>
       <c r="X6">
-        <v>0.8775990027025132</v>
+        <v>0.9988303579029576</v>
       </c>
       <c r="Y6">
-        <v>0.8897776420071785</v>
+        <v>0.9988303579029576</v>
       </c>
       <c r="Z6">
-        <v>0.8897776420071785</v>
+        <v>0.9988303579029576</v>
       </c>
       <c r="AA6">
-        <v>0.9151373780407055</v>
+        <v>0.9988303579029576</v>
       </c>
       <c r="AB6">
-        <v>0.9230540429750123</v>
+        <v>0.9988303579029576</v>
       </c>
       <c r="AC6">
-        <v>0.9524428212387078</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9786983110182178</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9813169340585081</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9829651979341228</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9872250695971321</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9872250695971321</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9872250695971321</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -2786,82 +2786,82 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01241669343984975</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01241669343984975</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1059144298421267</v>
+        <v>0.09647682422484884</v>
       </c>
       <c r="G7">
-        <v>0.1059144298421267</v>
+        <v>0.09647682422484884</v>
       </c>
       <c r="H7">
-        <v>0.2985127988515307</v>
+        <v>0.3135559933416228</v>
       </c>
       <c r="I7">
-        <v>0.3338549420836134</v>
+        <v>0.3392592945284176</v>
       </c>
       <c r="J7">
-        <v>0.3338549420836134</v>
+        <v>0.3392592945284176</v>
       </c>
       <c r="K7">
-        <v>0.3338549420836134</v>
+        <v>0.3392592945284176</v>
       </c>
       <c r="L7">
-        <v>0.5264503532841951</v>
+        <v>0.5563348640851249</v>
       </c>
       <c r="M7">
-        <v>0.734583184360869</v>
+        <v>0.7923189836816265</v>
       </c>
       <c r="N7">
-        <v>0.734583184360869</v>
+        <v>0.7923189836816265</v>
       </c>
       <c r="O7">
-        <v>0.7394702448760566</v>
+        <v>0.7923189836816265</v>
       </c>
       <c r="P7">
-        <v>0.7394702448760566</v>
+        <v>0.7923189836816265</v>
       </c>
       <c r="Q7">
-        <v>0.7414599854304019</v>
+        <v>0.7923189836816265</v>
       </c>
       <c r="R7">
-        <v>0.7414599854304019</v>
+        <v>0.7923189836816265</v>
       </c>
       <c r="S7">
-        <v>0.7507865289915948</v>
+        <v>0.7923189836816265</v>
       </c>
       <c r="T7">
-        <v>0.7507865289915948</v>
+        <v>0.7923189836816265</v>
       </c>
       <c r="U7">
-        <v>0.7507865289915948</v>
+        <v>0.7923189836816265</v>
       </c>
       <c r="V7">
-        <v>0.7761505626492667</v>
+        <v>0.8058792401611974</v>
       </c>
       <c r="W7">
-        <v>0.7985670111424401</v>
+        <v>0.8158523784432846</v>
       </c>
       <c r="X7">
-        <v>0.7985670111424401</v>
+        <v>0.8158523784432846</v>
       </c>
       <c r="Y7">
-        <v>0.7985670111424401</v>
+        <v>0.8158523784432846</v>
       </c>
       <c r="Z7">
-        <v>0.7985670111424401</v>
+        <v>0.8158523784432846</v>
       </c>
       <c r="AA7">
-        <v>0.8356669283542068</v>
+        <v>0.8436948351345686</v>
       </c>
       <c r="AB7">
-        <v>0.8431190984382138</v>
+        <v>0.8436948351345686</v>
       </c>
       <c r="AC7">
-        <v>0.9203363114524429</v>
+        <v>0.9203587757782365</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -2917,97 +2917,97 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.135427404464481</v>
+        <v>0.2118422155579748</v>
       </c>
       <c r="F8">
-        <v>0.2811482347468754</v>
+        <v>0.4442790908873834</v>
       </c>
       <c r="G8">
-        <v>0.3347331581110887</v>
+        <v>0.4923742621739787</v>
       </c>
       <c r="H8">
-        <v>0.4058502405751658</v>
+        <v>0.5755470507774432</v>
       </c>
       <c r="I8">
-        <v>0.436599777636842</v>
+        <v>0.5779541275492285</v>
       </c>
       <c r="J8">
-        <v>0.436599777636842</v>
+        <v>0.5779541275492285</v>
       </c>
       <c r="K8">
-        <v>0.4590962430149405</v>
+        <v>0.5779541275492285</v>
       </c>
       <c r="L8">
-        <v>0.5719271610764936</v>
+        <v>0.7445862296104635</v>
       </c>
       <c r="M8">
-        <v>0.6310143304115836</v>
+        <v>0.8036900665982046</v>
       </c>
       <c r="N8">
-        <v>0.688878784999554</v>
+        <v>0.8603475465946103</v>
       </c>
       <c r="O8">
-        <v>0.7072578271493625</v>
+        <v>0.8603475465946103</v>
       </c>
       <c r="P8">
-        <v>0.7315190949680909</v>
+        <v>0.8603475465946103</v>
       </c>
       <c r="Q8">
-        <v>0.7348612340551068</v>
+        <v>0.8603475465946103</v>
       </c>
       <c r="R8">
-        <v>0.7348612340551068</v>
+        <v>0.8603475465946103</v>
       </c>
       <c r="S8">
-        <v>0.7348612340551068</v>
+        <v>0.8603475465946103</v>
       </c>
       <c r="T8">
-        <v>0.7565397457975177</v>
+        <v>0.8603475465946103</v>
       </c>
       <c r="U8">
-        <v>0.7565397457975177</v>
+        <v>0.8603475465946103</v>
       </c>
       <c r="V8">
-        <v>0.7645021802816161</v>
+        <v>0.8603475465946103</v>
       </c>
       <c r="W8">
-        <v>0.8171565847074425</v>
+        <v>0.9065809741540976</v>
       </c>
       <c r="X8">
-        <v>0.8215254568506253</v>
+        <v>0.9065809741540976</v>
       </c>
       <c r="Y8">
-        <v>0.8215254568506253</v>
+        <v>0.9065809741540976</v>
       </c>
       <c r="Z8">
-        <v>0.821847749175068</v>
+        <v>0.9065809741540976</v>
       </c>
       <c r="AA8">
-        <v>0.8481392322722942</v>
+        <v>0.9065809741540976</v>
       </c>
       <c r="AB8">
-        <v>0.9243774910091674</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9421181539699213</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9592600267324867</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9712498775239776</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9712498775239776</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9712498775239776</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9712498775239776</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9779575668143574</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <v>1</v>
@@ -3045,97 +3045,97 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1926999788944368</v>
+        <v>0.2461230654376351</v>
       </c>
       <c r="F9">
-        <v>0.1926999788944368</v>
+        <v>0.2461230654376351</v>
       </c>
       <c r="G9">
-        <v>0.3273932731745694</v>
+        <v>0.4075543795905061</v>
       </c>
       <c r="H9">
-        <v>0.3661198395164739</v>
+        <v>0.4288709757897708</v>
       </c>
       <c r="I9">
-        <v>0.4470878655100068</v>
+        <v>0.5118615535052782</v>
       </c>
       <c r="J9">
-        <v>0.4470878655100068</v>
+        <v>0.5118615535052782</v>
       </c>
       <c r="K9">
-        <v>0.4470878655100068</v>
+        <v>0.5118615535052782</v>
       </c>
       <c r="L9">
-        <v>0.5313507145980159</v>
+        <v>0.5996626860714906</v>
       </c>
       <c r="M9">
-        <v>0.6556561626041625</v>
+        <v>0.7459273879818161</v>
       </c>
       <c r="N9">
-        <v>0.7149331768914355</v>
+        <v>0.7972483438122544</v>
       </c>
       <c r="O9">
-        <v>0.7954705619444264</v>
+        <v>0.8796101709678577</v>
       </c>
       <c r="P9">
-        <v>0.7954705619444264</v>
+        <v>0.8796101709678577</v>
       </c>
       <c r="Q9">
-        <v>0.7988329941320518</v>
+        <v>0.8796101709678577</v>
       </c>
       <c r="R9">
-        <v>0.7988329941320518</v>
+        <v>0.8796101709678577</v>
       </c>
       <c r="S9">
-        <v>0.7988329941320518</v>
+        <v>0.8796101709678577</v>
       </c>
       <c r="T9">
-        <v>0.7999524987557923</v>
+        <v>0.8796101709678577</v>
       </c>
       <c r="U9">
-        <v>0.7999524987557923</v>
+        <v>0.8796101709678577</v>
       </c>
       <c r="V9">
-        <v>0.7999524987557923</v>
+        <v>0.8796101709678577</v>
       </c>
       <c r="W9">
-        <v>0.8420493194099798</v>
+        <v>0.9058474541858714</v>
       </c>
       <c r="X9">
-        <v>0.8847205344470189</v>
+        <v>0.9329233729255546</v>
       </c>
       <c r="Y9">
-        <v>0.8847205344470189</v>
+        <v>0.9329233729255546</v>
       </c>
       <c r="Z9">
-        <v>0.8847205344470189</v>
+        <v>0.9329233729255546</v>
       </c>
       <c r="AA9">
-        <v>0.8847205344470189</v>
+        <v>0.9329233729255546</v>
       </c>
       <c r="AB9">
-        <v>0.9452996942213288</v>
+        <v>0.9861455058782155</v>
       </c>
       <c r="AC9">
-        <v>0.9789153519422421</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9789153519422421</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9886739116913578</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9886739116913578</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9886739116913578</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9886739116913578</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9886739116913578</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -3173,97 +3173,97 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1350480015792723</v>
+        <v>0.1601983878215477</v>
       </c>
       <c r="F10">
-        <v>0.1350480015792723</v>
+        <v>0.1601983878215477</v>
       </c>
       <c r="G10">
-        <v>0.3510495475542198</v>
+        <v>0.4340081524409057</v>
       </c>
       <c r="H10">
-        <v>0.3834762818255546</v>
+        <v>0.4501863672777393</v>
       </c>
       <c r="I10">
-        <v>0.5041075599644571</v>
+        <v>0.5901521166002472</v>
       </c>
       <c r="J10">
-        <v>0.5041075599644571</v>
+        <v>0.5901521166002472</v>
       </c>
       <c r="K10">
-        <v>0.5041075599644571</v>
+        <v>0.5901521166002472</v>
       </c>
       <c r="L10">
-        <v>0.5333858801906393</v>
+        <v>0.6019118015620817</v>
       </c>
       <c r="M10">
-        <v>0.6082555398881148</v>
+        <v>0.6776550327176849</v>
       </c>
       <c r="N10">
-        <v>0.6476249627077695</v>
+        <v>0.7035767172264302</v>
       </c>
       <c r="O10">
-        <v>0.7098933065246966</v>
+        <v>0.7616350791481954</v>
       </c>
       <c r="P10">
-        <v>0.7098933065246966</v>
+        <v>0.7616350791481954</v>
       </c>
       <c r="Q10">
-        <v>0.7098933065246966</v>
+        <v>0.7616350791481954</v>
       </c>
       <c r="R10">
-        <v>0.7157565321232977</v>
+        <v>0.7616350791481954</v>
       </c>
       <c r="S10">
-        <v>0.7157565321232977</v>
+        <v>0.7616350791481954</v>
       </c>
       <c r="T10">
-        <v>0.7157565321232977</v>
+        <v>0.7616350791481954</v>
       </c>
       <c r="U10">
-        <v>0.7246455152210433</v>
+        <v>0.7616350791481954</v>
       </c>
       <c r="V10">
-        <v>0.7246455152210433</v>
+        <v>0.7616350791481954</v>
       </c>
       <c r="W10">
-        <v>0.7521621791382902</v>
+        <v>0.7709224301288957</v>
       </c>
       <c r="X10">
-        <v>0.7943720037864864</v>
+        <v>0.800830375706364</v>
       </c>
       <c r="Y10">
-        <v>0.7943720037864864</v>
+        <v>0.800830375706364</v>
       </c>
       <c r="Z10">
-        <v>0.7943720037864864</v>
+        <v>0.800830375706364</v>
       </c>
       <c r="AA10">
-        <v>0.7943720037864864</v>
+        <v>0.800830375706364</v>
       </c>
       <c r="AB10">
-        <v>0.882424353790215</v>
+        <v>0.89507438538591</v>
       </c>
       <c r="AC10">
-        <v>0.9671784455352461</v>
+        <v>0.98468957165071</v>
       </c>
       <c r="AD10">
-        <v>0.9676288417590422</v>
+        <v>0.98468957165071</v>
       </c>
       <c r="AE10">
-        <v>0.9994372366182041</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9994372366182041</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9994372366182041</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9994372366182041</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9994372366182041</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -3301,118 +3301,118 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1427644271767594</v>
+        <v>0.1972450787206026</v>
       </c>
       <c r="F11">
-        <v>0.1535112055633822</v>
+        <v>0.1972450787206026</v>
       </c>
       <c r="G11">
-        <v>0.299324139829738</v>
+        <v>0.399752164996488</v>
       </c>
       <c r="H11">
-        <v>0.3163258980812375</v>
+        <v>0.399752164996488</v>
       </c>
       <c r="I11">
-        <v>0.4443202714455166</v>
+        <v>0.5715027533094938</v>
       </c>
       <c r="J11">
-        <v>0.4443202714455166</v>
+        <v>0.5715027533094938</v>
       </c>
       <c r="K11">
-        <v>0.4443202714455166</v>
+        <v>0.5715027533094938</v>
       </c>
       <c r="L11">
-        <v>0.51321518910825</v>
+        <v>0.6412421691781502</v>
       </c>
       <c r="M11">
-        <v>0.658935944626266</v>
+        <v>0.8435901463373616</v>
       </c>
       <c r="N11">
-        <v>0.691040765934739</v>
+        <v>0.849826424674744</v>
       </c>
       <c r="O11">
-        <v>0.7531180110167447</v>
+        <v>0.9077979018196682</v>
       </c>
       <c r="P11">
-        <v>0.7531180110167447</v>
+        <v>0.9077979018196682</v>
       </c>
       <c r="Q11">
-        <v>0.7718771705866525</v>
+        <v>0.9077979018196682</v>
       </c>
       <c r="R11">
-        <v>0.7718771705866525</v>
+        <v>0.9077979018196682</v>
       </c>
       <c r="S11">
-        <v>0.7718771705866525</v>
+        <v>0.9077979018196682</v>
       </c>
       <c r="T11">
-        <v>0.7728999736895873</v>
+        <v>0.9077979018196682</v>
       </c>
       <c r="U11">
-        <v>0.7728999736895873</v>
+        <v>0.9077979018196682</v>
       </c>
       <c r="V11">
-        <v>0.7728999736895873</v>
+        <v>0.9077979018196682</v>
       </c>
       <c r="W11">
-        <v>0.8161279386155007</v>
+        <v>0.933233763439377</v>
       </c>
       <c r="X11">
-        <v>0.8379603152867559</v>
+        <v>0.933233763439377</v>
       </c>
       <c r="Y11">
-        <v>0.8379603152867559</v>
+        <v>0.933233763439377</v>
       </c>
       <c r="Z11">
-        <v>0.8379603152867559</v>
+        <v>0.933233763439377</v>
       </c>
       <c r="AA11">
-        <v>0.8490271121324805</v>
+        <v>0.933233763439377</v>
       </c>
       <c r="AB11">
-        <v>0.8931423143337975</v>
+        <v>0.9602010793445082</v>
       </c>
       <c r="AC11">
-        <v>0.9350229371660951</v>
+        <v>0.983311302850941</v>
       </c>
       <c r="AD11">
-        <v>0.9472787823203958</v>
+        <v>0.983311302850941</v>
       </c>
       <c r="AE11">
-        <v>0.9854391389955628</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.986808874914387</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.986808874914387</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.986808874914387</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.986808874914387</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3474,34 +3474,34 @@
         <v>42</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5460684505405589</v>
       </c>
       <c r="F2">
-        <v>0.5145232918060307</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2">
         <v>3</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
       </c>
       <c r="L2" t="s">
         <v>66</v>
@@ -3515,34 +3515,34 @@
         <v>43</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.8175419376968845</v>
+      </c>
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.6294976516452451</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3">
         <v>3</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
       </c>
       <c r="L3" t="s">
         <v>66</v>
@@ -3556,34 +3556,34 @@
         <v>44</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5689882613182295</v>
       </c>
       <c r="F4">
-        <v>0.6027289162082684</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4">
         <v>3</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
       </c>
       <c r="L4" t="s">
         <v>66</v>
@@ -3597,34 +3597,34 @@
         <v>45</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.6441770377641207</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5709318882508623</v>
-      </c>
       <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
       </c>
       <c r="L5" t="s">
         <v>66</v>
@@ -3638,34 +3638,34 @@
         <v>46</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5426392770099999</v>
       </c>
       <c r="F6">
-        <v>0.7021557397129774</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6">
         <v>3</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
       </c>
       <c r="L6" t="s">
         <v>66</v>
@@ -3679,34 +3679,34 @@
         <v>47</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5563348640851249</v>
+      </c>
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>0.01241669343984975</v>
-      </c>
-      <c r="F7">
-        <v>0.5264503532841951</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7">
         <v>3</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
       </c>
       <c r="L7" t="s">
         <v>66</v>
@@ -3720,34 +3720,34 @@
         <v>48</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5755470507774432</v>
       </c>
       <c r="F8">
-        <v>0.5719271610764936</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8">
         <v>3</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -3761,34 +3761,34 @@
         <v>49</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5118615535052782</v>
       </c>
       <c r="F9">
-        <v>0.5313507145980159</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9">
         <v>3</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
@@ -3802,34 +3802,34 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5901521166002472</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5041075599644571</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10">
         <v>3</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
@@ -3843,34 +3843,34 @@
         <v>51</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5715027533094938</v>
       </c>
       <c r="F11">
-        <v>0.51321518910825</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11">
         <v>3</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
       </c>
       <c r="L11" t="s">
         <v>66</v>
@@ -3938,34 +3938,34 @@
         <v>42</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.841356435765713</v>
       </c>
       <c r="F2">
-        <v>0.7779694025793593</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2">
         <v>3</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
       </c>
       <c r="L2" t="s">
         <v>66</v>
@@ -3979,34 +3979,34 @@
         <v>43</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8175419376968845</v>
       </c>
       <c r="F3">
-        <v>0.7010048333703571</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3">
         <v>3</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
       </c>
       <c r="L3" t="s">
         <v>66</v>
@@ -4020,34 +4020,34 @@
         <v>44</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7856967963648958</v>
       </c>
       <c r="F4">
-        <v>0.7204399327855525</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4">
         <v>3</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
       </c>
       <c r="L4" t="s">
         <v>66</v>
@@ -4061,34 +4061,34 @@
         <v>45</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.9296987299328829</v>
+      </c>
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7634118600863199</v>
-      </c>
       <c r="G5">
+        <v>900</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
       </c>
       <c r="L5" t="s">
         <v>66</v>
@@ -4102,34 +4102,34 @@
         <v>46</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.9069030719087701</v>
+      </c>
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7021557397129774</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6">
         <v>3</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
       </c>
       <c r="L6" t="s">
         <v>66</v>
@@ -4143,34 +4143,34 @@
         <v>47</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.7923189836816265</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>0.01241669343984975</v>
-      </c>
-      <c r="F7">
-        <v>0.734583184360869</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>9</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7">
         <v>3</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
       </c>
       <c r="L7" t="s">
         <v>66</v>
@@ -4184,34 +4184,34 @@
         <v>48</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7445862296104635</v>
       </c>
       <c r="F8">
-        <v>0.7072578271493625</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8">
         <v>3</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -4225,34 +4225,34 @@
         <v>49</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7459273879818161</v>
       </c>
       <c r="F9">
-        <v>0.7149331768914355</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9">
         <v>3</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
@@ -4266,34 +4266,34 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7035767172264302</v>
       </c>
       <c r="F10">
-        <v>0.7098933065246966</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10">
         <v>3</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
@@ -4307,34 +4307,34 @@
         <v>51</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8435901463373616</v>
       </c>
       <c r="F11">
-        <v>0.7531180110167447</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11">
         <v>3</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
       </c>
       <c r="L11" t="s">
         <v>66</v>
@@ -4402,34 +4402,34 @@
         <v>42</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.841356435765713</v>
       </c>
       <c r="F2">
-        <v>0.8089714839755127</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2">
         <v>3</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
       </c>
       <c r="L2" t="s">
         <v>66</v>
@@ -4443,34 +4443,34 @@
         <v>43</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8175419376968845</v>
       </c>
       <c r="F3">
-        <v>0.8456578234209884</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3">
         <v>3</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
       </c>
       <c r="L3" t="s">
         <v>66</v>
@@ -4484,34 +4484,34 @@
         <v>44</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9442882640252538</v>
       </c>
       <c r="F4">
-        <v>0.8249737611500497</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4">
         <v>3</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
       </c>
       <c r="L4" t="s">
         <v>66</v>
@@ -4525,34 +4525,34 @@
         <v>45</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9296987299328829</v>
       </c>
       <c r="F5">
-        <v>0.8006882873347583</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
       </c>
       <c r="L5" t="s">
         <v>66</v>
@@ -4566,34 +4566,34 @@
         <v>46</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9069030719087701</v>
       </c>
       <c r="F6">
-        <v>0.8242801898866148</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6">
         <v>3</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
       </c>
       <c r="L6" t="s">
         <v>66</v>
@@ -4607,34 +4607,34 @@
         <v>47</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0.01241669343984975</v>
+        <v>0.8058792401611974</v>
       </c>
       <c r="F7">
-        <v>0.8356669283542068</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7">
         <v>3</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
       </c>
       <c r="L7" t="s">
         <v>66</v>
@@ -4648,34 +4648,34 @@
         <v>48</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8036900665982046</v>
       </c>
       <c r="F8">
-        <v>0.8171565847074425</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8">
         <v>3</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -4689,34 +4689,34 @@
         <v>49</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8796101709678577</v>
       </c>
       <c r="F9">
-        <v>0.8420493194099798</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9">
         <v>3</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
@@ -4730,34 +4730,34 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.800830375706364</v>
       </c>
       <c r="F10">
-        <v>0.882424353790215</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10">
         <v>3</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
@@ -4771,34 +4771,34 @@
         <v>51</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8435901463373616</v>
       </c>
       <c r="F11">
-        <v>0.8161279386155007</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11">
         <v>3</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
       </c>
       <c r="L11" t="s">
         <v>66</v>
@@ -4866,34 +4866,34 @@
         <v>42</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9271802849980303</v>
       </c>
       <c r="F2">
-        <v>0.9423975293992809</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2">
         <v>3</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
       </c>
       <c r="L2" t="s">
         <v>66</v>
@@ -4907,34 +4907,34 @@
         <v>43</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9523223514318028</v>
       </c>
       <c r="F3">
-        <v>0.9361966899111983</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3">
         <v>3</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
       </c>
       <c r="L3" t="s">
         <v>66</v>
@@ -4948,34 +4948,34 @@
         <v>44</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9442882640252538</v>
       </c>
       <c r="F4">
-        <v>0.9071803120605785</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4">
         <v>3</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
       </c>
       <c r="L4" t="s">
         <v>66</v>
@@ -4989,34 +4989,34 @@
         <v>45</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9296987299328829</v>
       </c>
       <c r="F5">
-        <v>0.933948285431156</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
       </c>
       <c r="L5" t="s">
         <v>66</v>
@@ -5030,34 +5030,34 @@
         <v>46</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9069030719087701</v>
       </c>
       <c r="F6">
-        <v>0.9151373780407055</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6">
         <v>3</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>65</v>
       </c>
       <c r="L6" t="s">
         <v>66</v>
@@ -5071,34 +5071,34 @@
         <v>47</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>0.9203587757782365</v>
+      </c>
+      <c r="F7">
         <v>28</v>
       </c>
-      <c r="E7">
-        <v>0.01241669343984975</v>
-      </c>
-      <c r="F7">
-        <v>0.9203363114524429</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>25</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7">
         <v>3</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
       </c>
       <c r="L7" t="s">
         <v>66</v>
@@ -5112,34 +5112,34 @@
         <v>48</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9065809741540976</v>
       </c>
       <c r="F8">
-        <v>0.9243774910091674</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8">
         <v>3</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -5153,34 +5153,34 @@
         <v>49</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9058474541858714</v>
       </c>
       <c r="F9">
-        <v>0.9452996942213288</v>
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9">
         <v>3</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
@@ -5194,34 +5194,34 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.98468957165071</v>
+      </c>
+      <c r="F10">
         <v>28</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9671784455352461</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>26</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10">
         <v>3</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
@@ -5235,34 +5235,34 @@
         <v>51</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9077979018196682</v>
       </c>
       <c r="F11">
-        <v>0.9350229371660951</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11">
         <v>3</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
       </c>
       <c r="L11" t="s">
         <v>66</v>
